--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -143,6 +143,18 @@
     <t>2:2</t>
   </si>
   <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -170,9 +182,6 @@
     <t>480.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -254,33 +263,36 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
   </si>
   <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -305,7 +317,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 2:24 PM</t>
+    <t>Wednesday, 28 May, 2025 3:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1210,7 +1222,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1220,14 +1232,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1236,14 +1248,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1253,14 +1265,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1269,7 +1281,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1286,14 +1298,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1309,7 +1321,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1326,7 +1338,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1342,7 +1354,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1352,11 +1364,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1368,14 +1380,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1408,7 +1420,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1418,14 +1430,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1434,14 +1446,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1458,7 +1470,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1474,7 +1486,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1484,11 +1496,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1500,14 +1512,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1524,7 +1536,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1533,31 +1545,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>81</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>82</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1566,7 +1578,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1583,14 +1595,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>86</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,7 +1611,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1616,14 +1628,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1632,14 +1644,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1649,14 +1661,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1672,7 +1684,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1682,14 +1694,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1698,14 +1710,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1715,49 +1727,82 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1290.01</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>98</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>99</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>23</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>24</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>100</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1399.01</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>102</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>103</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>104</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1886,10 +1931,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>123.0000</t>
   </si>
   <si>
+    <t>ULCEZOLE 60MG 20 DEL. REL. CAPSULES</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
     <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
   </si>
   <si>
@@ -317,7 +326,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 3:19 PM</t>
+    <t>Wednesday, 28 May, 2025 3:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1552,7 +1561,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1569,7 +1578,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1578,31 +1587,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>84</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1611,7 +1620,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1628,14 +1637,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>89</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1644,7 +1653,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1661,14 +1670,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1677,14 +1686,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1694,14 +1703,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1710,14 +1719,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1734,7 +1743,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1750,7 +1759,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1771,38 +1780,71 @@
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1399.01</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>102</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>23</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>24</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>103</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>104</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1597.01</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>105</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>106</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>107</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1936,10 +1978,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -326,7 +326,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 3:20 PM</t>
+    <t>Wednesday, 28 May, 2025 3:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -326,7 +326,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 3:24 PM</t>
+    <t>Wednesday, 28 May, 2025 3:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -326,7 +326,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 3:28 PM</t>
+    <t>Wednesday, 28 May, 2025 3:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -317,6 +317,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>ماسك صنفره هاي لايف</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -326,7 +335,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 3:29 PM</t>
+    <t>Wednesday, 28 May, 2025 3:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1813,38 +1822,71 @@
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1597.01</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>105</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>23</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>24</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>106</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>107</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1622.01</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>108</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>109</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>110</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1983,10 +2025,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -335,7 +335,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 3:30 PM</t>
+    <t>Wednesday, 28 May, 2025 3:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -335,7 +335,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 3:34 PM</t>
+    <t>Wednesday, 28 May, 2025 3:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -335,7 +335,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 3:35 PM</t>
+    <t>Wednesday, 28 May, 2025 3:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>82.0000</t>
   </si>
   <si>
+    <t>EPISOPT EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -335,7 +344,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 3:37 PM</t>
+    <t>Wednesday, 28 May, 2025 3:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1273,7 +1282,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1290,7 +1299,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1306,7 +1315,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1323,7 +1332,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1356,7 +1365,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1372,7 +1381,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1389,7 +1398,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1405,7 +1414,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1415,11 +1424,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1431,14 +1440,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1471,7 +1480,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1481,14 +1490,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1497,14 +1506,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1521,7 +1530,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1537,7 +1546,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1547,11 +1556,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1563,14 +1572,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1603,7 +1612,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1620,7 +1629,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1629,31 +1638,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1662,7 +1671,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1679,14 +1688,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>92</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1695,7 +1704,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1712,14 +1721,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1728,14 +1737,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1745,14 +1754,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1761,14 +1770,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1785,7 +1794,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1801,7 +1810,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1855,38 +1864,71 @@
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1622.01</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>108</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>23</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>24</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>109</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>110</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c t="s" r="Q34" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1692.01</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>111</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>112</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>113</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2030,10 +2072,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -143,6 +143,15 @@
     <t>2:2</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>DICETEL 100MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -155,6 +164,15 @@
     <t>82.0000</t>
   </si>
   <si>
+    <t>EMPACOZA PLUS 10/5MG 30 F.C TABS</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>117.8100</t>
+  </si>
+  <si>
     <t>EPISOPT EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -224,9 +242,6 @@
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>126.00</t>
   </si>
   <si>
@@ -344,7 +359,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 3:40 PM</t>
+    <t>Wednesday, 28 May, 2025 3:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1249,7 +1264,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1259,11 +1274,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1275,14 +1290,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1348,7 +1363,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1381,7 +1396,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1398,7 +1413,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1414,7 +1429,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1447,7 +1462,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1457,14 +1472,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1473,14 +1488,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1490,11 +1505,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1506,14 +1521,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1523,14 +1538,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1539,7 +1554,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1556,11 +1571,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1572,14 +1587,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1589,14 +1604,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1605,14 +1620,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1622,11 +1637,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1638,14 +1653,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1655,14 +1670,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1671,31 +1686,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1704,31 +1719,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1737,7 +1752,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1754,14 +1769,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1770,14 +1785,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1787,14 +1802,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1803,14 +1818,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1820,14 +1835,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1836,14 +1851,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1853,14 +1868,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1869,14 +1884,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1886,49 +1901,115 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>110</v>
       </c>
-      <c t="s" r="Q34" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1692.01</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>23</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>24</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>111</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>112</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c t="s" r="Q35" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>113</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>23</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>24</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>114</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1917.8199999999999</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>116</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>117</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>118</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2077,10 +2158,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -146,6 +146,9 @@
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -359,7 +362,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 3:46 PM</t>
+    <t>Wednesday, 28 May, 2025 3:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1264,7 +1267,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1274,11 +1277,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1290,14 +1293,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1307,11 +1310,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1323,14 +1326,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1340,11 +1343,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1356,7 +1359,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1373,11 +1376,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1389,7 +1392,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1406,11 +1409,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1422,7 +1425,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1439,11 +1442,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1455,7 +1458,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1472,14 +1475,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1488,7 +1491,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1505,11 +1508,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1521,14 +1524,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1538,11 +1541,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1554,7 +1557,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1571,11 +1574,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1587,7 +1590,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1604,11 +1607,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1620,7 +1623,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1637,11 +1640,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1653,14 +1656,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1670,11 +1673,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1686,7 +1689,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1703,11 +1706,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1719,7 +1722,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1736,14 +1739,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1752,7 +1755,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1769,14 +1772,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1785,7 +1788,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1802,14 +1805,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1818,7 +1821,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1835,11 +1838,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -1851,14 +1854,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1868,14 +1871,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1884,7 +1887,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1901,11 +1904,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1917,7 +1920,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1934,11 +1937,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1950,7 +1953,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1967,11 +1970,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -1985,7 +1988,7 @@
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c t="s" r="A38" s="14">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1993,13 +1996,13 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c t="s" r="G38" s="15">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="16"/>
       <c t="s" r="K38" s="17">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -362,7 +362,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 3:53 PM</t>
+    <t>Wednesday, 28 May, 2025 3:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -362,7 +362,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 3:54 PM</t>
+    <t>Wednesday, 28 May, 2025 4:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -44,24 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
     <t>1:4</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
     <t>11.5200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -362,7 +371,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 4:02 PM</t>
+    <t>Wednesday, 28 May, 2025 4:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1020,7 +1029,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1029,14 +1038,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1046,14 +1055,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1062,31 +1071,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1095,31 +1104,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1128,14 +1137,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1145,14 +1154,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1161,14 +1170,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1178,14 +1187,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1194,14 +1203,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1218,7 +1227,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1234,7 +1243,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1244,14 +1253,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1260,14 +1269,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1277,14 +1286,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1293,14 +1302,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1310,14 +1319,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1326,14 +1335,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1350,7 +1359,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1366,7 +1375,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1383,7 +1392,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1399,7 +1408,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1416,7 +1425,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1432,7 +1441,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1449,7 +1458,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1465,7 +1474,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1482,7 +1491,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1498,7 +1507,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1515,7 +1524,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1531,7 +1540,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1541,14 +1550,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1557,14 +1566,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1581,7 +1590,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1597,7 +1606,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1614,7 +1623,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1630,7 +1639,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1647,7 +1656,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1663,7 +1672,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1673,14 +1682,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1689,14 +1698,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1713,7 +1722,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1729,7 +1738,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1746,7 +1755,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1755,31 +1764,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1788,31 +1797,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1821,31 +1830,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1854,31 +1863,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1887,20 +1896,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1911,7 +1920,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1927,13 +1936,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1944,7 +1953,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1960,13 +1969,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1977,42 +1986,75 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1917.8199999999999</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>117</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>26</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>27</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>118</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c t="s" r="Q37" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1937.8199999999999</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>120</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>121</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>122</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2171,10 +2213,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -371,7 +371,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 4:03 PM</t>
+    <t>Wednesday, 28 May, 2025 4:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>30.5000</t>
   </si>
   <si>
+    <t>CAPOZIDE 50/25MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>CEFAZONE 1 GM VIAL</t>
   </si>
   <si>
@@ -116,9 +128,6 @@
     <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -371,7 +380,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 4:16 PM</t>
+    <t>Wednesday, 28 May, 2025 4:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1161,7 +1170,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1194,7 +1203,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1210,7 +1219,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1220,14 +1229,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1236,14 +1245,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1260,7 +1269,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1276,7 +1285,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1286,14 +1295,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1302,14 +1311,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1319,14 +1328,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1335,14 +1344,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1352,11 +1361,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>24</v>
@@ -1368,14 +1377,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1392,7 +1401,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1408,7 +1417,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1425,7 +1434,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1441,7 +1450,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1458,7 +1467,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1474,7 +1483,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1491,7 +1500,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1524,7 +1533,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1540,7 +1549,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1557,7 +1566,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1573,7 +1582,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1583,11 +1592,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>24</v>
@@ -1599,14 +1608,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1656,7 +1665,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1689,7 +1698,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1705,7 +1714,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1715,11 +1724,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>24</v>
@@ -1731,14 +1740,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1771,7 +1780,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1788,7 +1797,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1797,31 +1806,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>100</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1830,7 +1839,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>103</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>104</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1863,7 +1872,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1880,14 +1889,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1896,14 +1905,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1913,14 +1922,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1929,14 +1938,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1953,7 +1962,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1969,7 +1978,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2023,38 +2032,71 @@
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1937.8199999999999</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>120</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>26</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>27</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>121</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>122</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1968.51</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>123</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>124</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>125</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2218,10 +2260,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -290,6 +290,15 @@
     <t>123.0000</t>
   </si>
   <si>
+    <t>TRILEPTAL 300MG 50 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>356.00</t>
+  </si>
+  <si>
+    <t>71.2000</t>
+  </si>
+  <si>
     <t>ULCEZOLE 60MG 20 DEL. REL. CAPSULES</t>
   </si>
   <si>
@@ -380,7 +389,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 4:25 PM</t>
+    <t>Wednesday, 28 May, 2025 4:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1780,7 +1789,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1797,7 +1806,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1813,7 +1822,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1830,7 +1839,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1839,31 +1848,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>103</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1872,7 +1881,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1889,14 +1898,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>107</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1905,7 +1914,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1922,14 +1931,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1938,14 +1947,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1955,14 +1964,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1971,14 +1980,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1995,7 +2004,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2011,7 +2020,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2065,38 +2074,71 @@
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1968.51</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>123</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>26</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>27</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>124</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>125</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>2039.71</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>126</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>127</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>128</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2265,10 +2307,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
@@ -251,6 +263,24 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>OSTEOCARE LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>PRIVACOND EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -281,9 +311,6 @@
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>123.00</t>
   </si>
   <si>
@@ -389,7 +416,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 4:27 PM</t>
+    <t>Wednesday, 28 May, 2025 5:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1135,15 +1162,15 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>24</v>
@@ -1155,20 +1182,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1179,7 +1206,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1212,7 +1239,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1228,7 +1255,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1238,14 +1265,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1254,14 +1281,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1278,7 +1305,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1294,7 +1321,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1304,14 +1331,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1320,14 +1347,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1337,14 +1364,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1353,14 +1380,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1370,14 +1397,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1426,7 +1453,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1436,14 +1463,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1452,14 +1479,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1469,14 +1496,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1485,14 +1512,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1502,14 +1529,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1518,14 +1545,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1535,14 +1562,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1551,7 +1578,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1568,14 +1595,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1584,14 +1611,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1601,14 +1628,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1617,14 +1644,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1657,7 +1684,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1667,11 +1694,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>24</v>
@@ -1683,14 +1710,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1700,14 +1727,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1716,14 +1743,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1733,14 +1760,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1749,14 +1776,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1789,7 +1816,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1822,7 +1849,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1855,7 +1882,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1872,7 +1899,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1881,31 +1908,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1914,31 +1941,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>110</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1947,31 +1974,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1980,31 +2007,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>55</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2013,31 +2040,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>119</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2053,24 +2080,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2079,20 +2106,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2103,42 +2130,141 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>2039.71</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>126</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>21</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>31</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>127</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>128</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c t="s" r="Q40" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>129</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>30</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>31</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>130</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>132</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>30</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>31</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>133</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>2263.71</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>135</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>136</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>137</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2312,10 +2438,25 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -416,7 +416,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 5:15 PM</t>
+    <t>Wednesday, 28 May, 2025 5:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -233,6 +233,9 @@
     <t>45.5000</t>
   </si>
   <si>
+    <t>LEVOFLOXACIN 750 MG 5 F.C.TABS.</t>
+  </si>
+  <si>
     <t>LIMITLESS WOMAN MAX 30 TABS.</t>
   </si>
   <si>
@@ -290,6 +293,15 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -299,6 +311,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>TEBONINA FORTE 40MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>TOBRADEX EYE OINT. 3.5 GM</t>
   </si>
   <si>
@@ -338,9 +359,6 @@
     <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>-59.4000</t>
   </si>
   <si>
@@ -353,9 +371,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>15:0</t>
   </si>
   <si>
@@ -365,10 +380,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -413,10 +428,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 28 May, 2025 5:35 PM</t>
+    <t>Wednesday, 28 May, 2025 5:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1618,7 +1630,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1628,14 +1640,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1644,14 +1656,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1661,14 +1673,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1677,14 +1689,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1694,11 +1706,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>24</v>
@@ -1710,14 +1722,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1727,11 +1739,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>24</v>
@@ -1743,14 +1755,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1760,14 +1772,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1776,14 +1788,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1793,14 +1805,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1809,7 +1821,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1826,14 +1838,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1842,14 +1854,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1859,14 +1871,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1875,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1892,14 +1904,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1908,14 +1920,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1925,11 +1937,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1941,14 +1953,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1958,11 +1970,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -1974,14 +1986,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1991,14 +2003,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2007,7 +2019,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2020,18 +2032,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2040,31 +2052,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>119</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2073,31 +2085,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2106,14 +2118,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2123,14 +2135,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>59</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2139,14 +2151,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2156,14 +2168,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2172,7 +2184,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2189,14 +2201,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2205,14 +2217,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2222,49 +2234,148 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>131</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>21</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>31</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>132</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>134</v>
       </c>
-      <c t="s" r="Q42" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>2263.71</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>30</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>31</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>135</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>136</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c t="s" r="Q44" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>137</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>30</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>31</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>138</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2394.1300000000001</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>139</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>140</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>141</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2453,10 +2564,25 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -428,7 +428,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 5:46 PM</t>
+    <t>Wednesday, 28 May, 2025 5:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>14.3000</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
@@ -197,6 +209,15 @@
     <t>82.0000</t>
   </si>
   <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
     <t>EMPACOZA PLUS 10/5MG 30 F.C TABS</t>
   </si>
   <si>
@@ -428,7 +449,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 5:55 PM</t>
+    <t>Wednesday, 28 May, 2025 5:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1207,18 +1228,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1227,20 +1248,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1251,7 +1272,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1284,7 +1305,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1300,7 +1321,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1310,14 +1331,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1326,14 +1347,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1350,7 +1371,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1366,7 +1387,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1376,14 +1397,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1392,14 +1413,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1409,14 +1430,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1425,14 +1446,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1442,14 +1463,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1498,7 +1519,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1508,14 +1529,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1524,14 +1545,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1541,14 +1562,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1557,14 +1578,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1574,11 +1595,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1590,14 +1611,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1607,11 +1628,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>24</v>
@@ -1623,14 +1644,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1640,14 +1661,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1656,7 +1677,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1673,14 +1694,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1689,14 +1710,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1722,14 +1743,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1746,7 +1767,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1762,7 +1783,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1795,7 +1816,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1805,14 +1826,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1821,14 +1842,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1838,11 +1859,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -1854,14 +1875,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1871,14 +1892,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1887,7 +1908,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1904,14 +1925,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1920,14 +1941,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1937,11 +1958,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1953,7 +1974,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1970,14 +1991,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2003,14 +2024,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2019,14 +2040,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2036,14 +2057,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2052,14 +2073,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2069,11 +2090,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>24</v>
@@ -2085,14 +2106,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2102,14 +2123,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2118,31 +2139,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>120</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,24 +2172,24 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2191,24 +2212,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2217,20 +2238,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2241,7 +2262,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>59</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2250,31 +2271,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2290,24 +2311,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2316,66 +2337,132 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2394.1300000000001</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>139</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>140</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>141</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>34</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>35</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>142</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>144</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>34</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>35</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>145</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2470.9299999999998</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>146</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>147</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>148</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2579,10 +2666,20 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -449,7 +449,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 5:59 PM</t>
+    <t>Wednesday, 28 May, 2025 6:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>14.3000</t>
   </si>
   <si>
+    <t>BETASERC 16MG 60 TAB</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>72.2700</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
@@ -323,6 +332,15 @@
     <t>37.9200</t>
   </si>
   <si>
+    <t>SILDEN 100 MG 8F.C. TABS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -449,7 +467,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 6:01 PM</t>
+    <t>Wednesday, 28 May, 2025 6:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1255,24 +1273,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1281,31 +1299,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1314,14 +1332,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1331,14 +1349,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1347,14 +1365,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1371,7 +1389,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1387,7 +1405,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1397,14 +1415,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1413,14 +1431,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1437,7 +1455,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1453,7 +1471,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1463,14 +1481,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1479,14 +1497,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1496,14 +1514,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1512,14 +1530,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1529,11 +1547,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>24</v>
@@ -1545,14 +1563,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1569,7 +1587,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1585,7 +1603,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1618,7 +1636,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1635,7 +1653,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1651,7 +1669,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1668,7 +1686,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1684,7 +1702,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1701,7 +1719,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1717,7 +1735,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1727,11 +1745,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>24</v>
@@ -1743,14 +1761,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1760,14 +1778,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1783,7 +1801,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1800,7 +1818,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1816,7 +1834,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1826,11 +1844,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -1842,14 +1860,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1882,7 +1900,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1899,7 +1917,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1915,7 +1933,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1932,7 +1950,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1948,7 +1966,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1965,7 +1983,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1981,7 +1999,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2014,7 +2032,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2064,7 +2082,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2080,7 +2098,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2097,7 +2115,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2113,7 +2131,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2130,7 +2148,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2146,7 +2164,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2179,7 +2197,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2189,14 +2207,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2212,13 +2230,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2226,10 +2244,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2245,24 +2263,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>130</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2271,31 +2289,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>133</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2311,24 +2329,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>63</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2344,24 +2362,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2370,20 +2388,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2394,7 +2412,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2410,13 +2428,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2424,45 +2442,111 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2470.9299999999998</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>146</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>147</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>37</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>38</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>148</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>150</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>37</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>38</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>151</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2551.1199999999999</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>152</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>153</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>154</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2676,10 +2760,20 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -467,7 +467,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 6:11 PM</t>
+    <t>Wednesday, 28 May, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -209,70 +209,82 @@
     <t>DICETEL 100MG 20 F.C. TABS.</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
+    <t>EMPACOZA PLUS 10/5MG 30 F.C TABS</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>117.8100</t>
+  </si>
+  <si>
+    <t>EPISOPT EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>FLUCA EYE SUSP. DROP 5 ML</t>
+  </si>
+  <si>
+    <t>45.50</t>
+  </si>
+  <si>
+    <t>45.5000</t>
+  </si>
+  <si>
+    <t>LEVOFLOXACIN 750 MG 5 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>ECOTO 20 PIECES</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>62.5000</t>
-  </si>
-  <si>
-    <t>EMPACOZA PLUS 10/5MG 30 F.C TABS</t>
-  </si>
-  <si>
-    <t>357.00</t>
-  </si>
-  <si>
-    <t>117.8100</t>
-  </si>
-  <si>
-    <t>EPISOPT EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>FLUCA EYE SUSP. DROP 5 ML</t>
-  </si>
-  <si>
-    <t>45.50</t>
-  </si>
-  <si>
-    <t>45.5000</t>
-  </si>
-  <si>
-    <t>LEVOFLOXACIN 750 MG 5 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>480.0000</t>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
   </si>
   <si>
     <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
@@ -467,7 +479,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 6:15 PM</t>
+    <t>Wednesday, 28 May, 2025 6:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1702,7 +1714,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1818,7 +1830,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1827,14 +1839,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1844,11 +1856,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -1860,14 +1872,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1900,7 +1912,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1910,11 +1922,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -1926,14 +1938,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1943,14 +1955,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1959,14 +1971,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1976,14 +1988,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1992,14 +2004,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2009,14 +2021,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2025,14 +2037,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2042,11 +2054,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2058,14 +2070,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2075,11 +2087,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2091,7 +2103,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2108,11 +2120,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2124,7 +2136,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2141,14 +2153,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2157,14 +2169,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2174,11 +2186,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2190,14 +2202,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2207,14 +2219,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2223,14 +2235,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2240,14 +2252,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2256,14 +2268,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2273,14 +2285,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>130</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2289,31 +2301,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2322,7 +2334,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2339,11 +2351,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>137</v>
@@ -2372,14 +2384,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2388,14 +2400,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2405,14 +2417,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2428,7 +2440,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2438,14 +2450,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2454,14 +2466,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2471,11 +2483,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>24</v>
@@ -2487,7 +2499,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2504,49 +2516,82 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2551.1199999999999</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>152</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>153</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>154</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>37</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>38</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>155</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2806.1199999999999</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>156</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>157</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>158</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2770,10 +2815,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -479,7 +479,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 6:29 PM</t>
+    <t>Wednesday, 28 May, 2025 6:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -254,6 +254,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>FLUCA EYE SUSP. DROP 5 ML</t>
   </si>
   <si>
@@ -479,7 +488,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 6:30 PM</t>
+    <t>Wednesday, 28 May, 2025 6:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1747,7 +1756,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1764,7 +1773,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1780,7 +1789,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1790,11 +1799,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>24</v>
@@ -1806,14 +1815,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1823,14 +1832,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1839,7 +1848,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1856,14 +1865,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1879,7 +1888,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1912,7 +1921,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1922,11 +1931,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -1938,14 +1947,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1978,7 +1987,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1995,7 +2004,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2011,7 +2020,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2028,7 +2037,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2044,7 +2053,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2061,7 +2070,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2077,7 +2086,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2110,7 +2119,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2193,7 +2202,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2209,7 +2218,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2242,7 +2251,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2259,7 +2268,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2275,7 +2284,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2292,7 +2301,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2308,7 +2317,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2318,14 +2327,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>134</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2341,21 +2350,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>137</v>
@@ -2388,10 +2397,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>140</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>141</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2400,7 +2409,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2417,14 +2426,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2450,14 +2459,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2466,14 +2475,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2490,7 +2499,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2506,7 +2515,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2553,45 +2562,78 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2806.1199999999999</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>156</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>157</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>37</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>38</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>158</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2837.8000000000002</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>159</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>160</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>161</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2820,10 +2862,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -488,7 +488,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 6:31 PM</t>
+    <t>Wednesday, 28 May, 2025 6:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1756,7 +1756,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>14.3000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>BETASERC 16MG 60 TAB</t>
   </si>
   <si>
@@ -152,9 +164,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -425,6 +434,12 @@
     <t>0:-2</t>
   </si>
   <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -434,61 +449,70 @@
     <t>15:0</t>
   </si>
   <si>
+    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>ماسك صنفره هاي لايف</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>8.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>ماسك صنفره هاي لايف</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>Wednesday, 28 May, 2025 6:48 PM</t>
+    <t>Wednesday, 28 May, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1294,7 +1318,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1304,11 +1328,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1320,31 +1344,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1353,20 +1377,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1377,7 +1401,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1410,7 +1434,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1426,7 +1450,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1436,14 +1460,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1459,7 +1483,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1469,14 +1493,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1485,14 +1509,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1509,7 +1533,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1525,7 +1549,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1535,14 +1559,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1551,14 +1575,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1568,14 +1592,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1584,14 +1608,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1601,11 +1625,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>24</v>
@@ -1617,14 +1641,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1641,7 +1665,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1657,7 +1681,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1690,7 +1714,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1707,7 +1731,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1723,7 +1747,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1740,7 +1764,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1756,7 +1780,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1806,7 +1830,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1822,7 +1846,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1832,11 +1856,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>24</v>
@@ -1848,14 +1872,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1865,14 +1889,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1881,7 +1905,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1898,14 +1922,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1921,7 +1945,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1954,7 +1978,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1964,11 +1988,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>24</v>
@@ -1980,14 +2004,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2020,7 +2044,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2037,7 +2061,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2053,7 +2077,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2070,7 +2094,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2086,7 +2110,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2103,7 +2127,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2119,7 +2143,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2152,7 +2176,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2235,7 +2259,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2251,7 +2275,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2284,7 +2308,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2301,7 +2325,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2317,7 +2341,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2334,7 +2358,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2350,7 +2374,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2360,14 +2384,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>137</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2383,21 +2407,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>140</v>
@@ -2416,24 +2440,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>144</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2442,31 +2466,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2475,31 +2499,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2508,31 +2532,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2541,31 +2565,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2574,66 +2598,165 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2837.8000000000002</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>158</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>21</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>42</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>159</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c t="s" r="Q52" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>161</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>41</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>42</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>162</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>164</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>41</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>42</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>165</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2954.98</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>167</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>168</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>169</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2867,10 +2990,25 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -512,7 +512,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 7:02 PM</t>
+    <t>Wednesday, 28 May, 2025 7:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1813,7 +1813,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>BETASERC 16MG 60 TAB</t>
   </si>
   <si>
@@ -224,7 +236,10 @@
     <t>82.00</t>
   </si>
   <si>
-    <t>82.0000</t>
+    <t>164.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>ECOTO 20 PIECES</t>
@@ -281,6 +296,12 @@
     <t>45.5000</t>
   </si>
   <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>LEVOFLOXACIN 750 MG 5 F.C.TABS.</t>
   </si>
   <si>
@@ -293,9 +314,6 @@
     <t>480.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>NESTOGEN 1 MILK 400 GM</t>
   </si>
   <si>
@@ -353,6 +371,15 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>ROYAL JELLY 1000MG 12 CAPS</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
     <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
   </si>
   <si>
@@ -440,6 +467,12 @@
     <t>67.5000</t>
   </si>
   <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -458,13 +491,25 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -482,9 +527,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>شمع حريمي</t>
   </si>
   <si>
@@ -512,7 +554,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 7:05 PM</t>
+    <t>Wednesday, 28 May, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1351,7 +1393,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1368,7 +1410,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1377,31 +1419,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1410,20 +1452,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1434,7 +1476,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1460,14 +1502,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1476,14 +1518,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1493,14 +1535,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1509,14 +1551,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1533,7 +1575,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1549,7 +1591,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1559,14 +1601,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1575,14 +1617,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1592,14 +1634,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1608,14 +1650,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1625,14 +1667,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1681,7 +1723,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1691,14 +1733,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1707,14 +1749,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1724,11 +1766,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1740,14 +1782,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1757,14 +1799,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1773,14 +1815,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1790,14 +1832,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1806,14 +1848,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1823,11 +1865,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1839,14 +1881,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1856,14 +1898,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1872,14 +1914,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1889,11 +1931,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -1905,14 +1947,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1922,14 +1964,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1938,14 +1980,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1955,11 +1997,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -1978,7 +2020,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1995,7 +2037,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2011,7 +2053,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2021,11 +2063,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>24</v>
@@ -2037,14 +2079,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2054,11 +2096,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -2070,14 +2112,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2094,7 +2136,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2110,7 +2152,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2143,7 +2185,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2160,7 +2202,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2176,7 +2218,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2193,7 +2235,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2209,7 +2251,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2226,7 +2268,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2242,7 +2284,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2275,7 +2317,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2292,7 +2334,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2308,7 +2350,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2325,7 +2367,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2341,7 +2383,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2374,7 +2416,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2407,7 +2449,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2417,14 +2459,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>140</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2440,7 +2482,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2450,11 +2492,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2466,31 +2508,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2499,31 +2541,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2532,31 +2574,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2572,24 +2614,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2605,24 +2647,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>94</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2631,28 +2673,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -2664,28 +2706,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>24</v>
@@ -2697,66 +2739,231 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>166</v>
       </c>
-      <c t="s" r="Q54" s="12">
-        <v>24</v>
-      </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2954.98</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>167</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>45</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>46</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>155</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c t="s" r="Q55" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>169</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>170</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>46</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>171</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>172</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>21</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>46</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>173</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>175</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>45</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>46</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>176</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>178</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>45</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>46</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>179</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>3310.98</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>181</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>182</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>183</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3005,10 +3212,35 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -200,6 +209,18 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DEXAFLOX EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -242,6 +263,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>ECOTO 20 PIECES</t>
   </si>
   <si>
@@ -398,6 +428,15 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -452,6 +491,15 @@
     <t>198.0000</t>
   </si>
   <si>
+    <t>VITACID C 500MG 12 EFF. GRAN. IN SACHETS</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
   </si>
   <si>
@@ -473,6 +521,15 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -506,10 +563,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -530,9 +587,6 @@
     <t>شمع حريمي</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -542,19 +596,13 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
     <t>8.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 28 May, 2025 7:19 PM</t>
+    <t>Wednesday, 28 May, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1591,7 +1639,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1601,14 +1649,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1617,14 +1665,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1641,7 +1689,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1667,14 +1715,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1683,14 +1731,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1700,11 +1748,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>24</v>
@@ -1716,14 +1764,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1733,14 +1781,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1749,14 +1797,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1766,14 +1814,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1782,14 +1830,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1806,7 +1854,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1815,7 +1863,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1832,11 +1880,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>24</v>
@@ -1848,14 +1896,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1865,11 +1913,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1881,14 +1929,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1898,11 +1946,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1914,14 +1962,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1931,11 +1979,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -1947,7 +1995,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1964,14 +2012,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1980,14 +2028,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1997,14 +2045,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2013,7 +2061,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2030,14 +2078,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2046,14 +2094,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2063,11 +2111,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>24</v>
@@ -2079,7 +2127,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2096,11 +2144,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -2112,14 +2160,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2136,7 +2184,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2152,7 +2200,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2185,7 +2233,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2202,7 +2250,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2218,7 +2266,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2228,11 +2276,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>24</v>
@@ -2244,7 +2292,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2261,11 +2309,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2277,14 +2325,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2294,14 +2342,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2310,14 +2358,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2327,14 +2375,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2343,14 +2391,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2360,14 +2408,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2376,14 +2424,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2393,11 +2441,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2409,14 +2457,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2426,14 +2474,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2442,14 +2490,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2459,11 +2507,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2475,14 +2523,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2492,11 +2540,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2508,14 +2556,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2525,14 +2573,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2541,14 +2589,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2558,14 +2606,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>149</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2574,14 +2622,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2591,14 +2639,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2607,14 +2655,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2624,14 +2672,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2640,31 +2688,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>156</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2673,28 +2721,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -2706,31 +2754,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2739,31 +2787,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>166</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2772,31 +2820,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2805,14 +2853,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2826,10 +2874,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2838,14 +2886,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2855,14 +2903,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2871,14 +2919,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2888,11 +2936,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>24</v>
@@ -2904,7 +2952,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2921,49 +2969,247 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>3310.98</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>181</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>182</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>45</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>46</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>183</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>186</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>45</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>46</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>174</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>188</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>189</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>46</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>190</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>191</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>21</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>46</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>60</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>193</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>45</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>46</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>194</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>195</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>45</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>46</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>196</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3569.98</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>197</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>198</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>199</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3237,10 +3483,40 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -491,6 +491,12 @@
     <t>198.0000</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>VITACID C 500MG 12 EFF. GRAN. IN SACHETS</t>
   </si>
   <si>
@@ -602,7 +608,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 7:51 PM</t>
+    <t>Wednesday, 28 May, 2025 7:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2728,7 +2734,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2738,11 +2744,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -2754,14 +2760,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2771,14 +2777,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>165</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2787,14 +2793,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2804,14 +2810,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>167</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2837,14 +2843,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2860,21 +2866,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>24</v>
@@ -2886,14 +2892,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2903,14 +2909,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>175</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2919,14 +2925,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2936,14 +2942,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2952,14 +2958,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2969,11 +2975,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>24</v>
@@ -2985,7 +2991,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3002,14 +3008,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>185</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3018,7 +3024,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3035,14 +3041,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>187</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3058,7 +3064,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3068,14 +3074,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3084,14 +3090,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3101,14 +3107,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3124,7 +3130,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3134,11 +3140,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>24</v>
@@ -3171,45 +3177,78 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q65" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>197</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>45</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>46</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>198</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>83</v>
       </c>
     </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3569.98</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>197</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>198</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3597.98</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
         <v>199</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>200</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>201</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3513,10 +3552,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -236,6 +236,15 @@
     <t>2:2</t>
   </si>
   <si>
+    <t>DIACEREIN 50MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -317,6 +326,21 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>4:10</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>FLUCA EYE SUSP. DROP 5 ML</t>
   </si>
   <si>
@@ -353,6 +377,12 @@
     <t>255.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -419,6 +449,15 @@
     <t>37.9200</t>
   </si>
   <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>SILDEN 100 MG 8F.C. TABS</t>
   </si>
   <si>
@@ -494,9 +533,6 @@
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>VITACID C 500MG 12 EFF. GRAN. IN SACHETS</t>
   </si>
   <si>
@@ -608,7 +644,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 7:52 PM</t>
+    <t>Wednesday, 28 May, 2025 8:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1810,7 +1846,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1820,14 +1856,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1836,14 +1872,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1853,14 +1889,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>83</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1869,14 +1905,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1886,14 +1922,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1926,7 +1962,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1942,7 +1978,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1975,7 +2011,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1992,7 +2028,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2008,7 +2044,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2025,7 +2061,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2041,7 +2077,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2074,7 +2110,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2091,7 +2127,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2107,7 +2143,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2117,14 +2153,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2133,14 +2169,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2150,11 +2186,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -2166,14 +2202,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2183,14 +2219,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>83</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2199,14 +2235,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2216,11 +2252,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>24</v>
@@ -2232,14 +2268,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2249,14 +2285,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2265,14 +2301,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2282,11 +2318,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>24</v>
@@ -2298,14 +2334,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2315,11 +2351,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2338,7 +2374,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2355,7 +2391,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2371,7 +2407,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2381,11 +2417,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
@@ -2397,7 +2433,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2414,11 +2450,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
@@ -2430,14 +2466,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2447,14 +2483,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2463,14 +2499,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2480,14 +2516,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2496,14 +2532,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2513,11 +2549,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2529,14 +2565,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2546,11 +2582,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2562,7 +2598,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2579,14 +2615,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2595,14 +2631,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2612,14 +2648,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2628,14 +2664,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2645,11 +2681,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>24</v>
@@ -2661,14 +2697,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2678,11 +2714,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2694,14 +2730,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2711,14 +2747,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2727,14 +2763,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2744,11 +2780,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -2760,14 +2796,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2777,11 +2813,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>24</v>
@@ -2793,14 +2829,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2810,14 +2846,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2826,7 +2862,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2843,14 +2879,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2859,14 +2895,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2876,11 +2912,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>24</v>
@@ -2892,28 +2928,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>24</v>
@@ -2925,31 +2961,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2958,31 +2994,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2991,24 +3027,24 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3031,7 +3067,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3048,7 +3084,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3057,7 +3093,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3074,14 +3110,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>189</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3107,14 +3143,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>83</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3130,7 +3166,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3140,11 +3176,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>24</v>
@@ -3156,7 +3192,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3173,14 +3209,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3189,7 +3225,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3206,49 +3242,181 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3597.98</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>199</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>200</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>201</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>202</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>203</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>46</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>204</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>205</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>21</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>46</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>60</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>207</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>45</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>46</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>208</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>209</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>45</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>46</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>210</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3811.98</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>211</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>212</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>213</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3557,10 +3725,30 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -644,7 +644,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 8:05 PM</t>
+    <t>Wednesday, 28 May, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -71,6 +71,18 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -143,6 +155,18 @@
     <t>72.2700</t>
   </si>
   <si>
+    <t>BILICHOL 24 CAPS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
@@ -188,6 +212,15 @@
     <t>32.6700</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -206,15 +239,9 @@
     <t>36.00</t>
   </si>
   <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>3:3</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -272,6 +299,12 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -368,6 +401,9 @@
     <t>480.0000</t>
   </si>
   <si>
+    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>NESTOGEN 1 MILK 400 GM</t>
   </si>
   <si>
@@ -605,9 +641,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>13:0</t>
   </si>
   <si>
@@ -618,9 +651,6 @@
   </si>
   <si>
     <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>6:0</t>
   </si>
   <si>
     <t>15.00</t>
@@ -1368,7 +1398,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1377,14 +1407,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1394,14 +1424,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1434,7 +1464,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1483,7 +1513,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1493,14 +1523,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1516,7 +1546,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1533,7 +1563,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1542,31 +1572,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1575,14 +1605,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1592,14 +1622,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1608,31 +1638,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1641,14 +1671,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1658,11 +1688,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1674,14 +1704,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1691,14 +1721,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1707,14 +1737,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1724,14 +1754,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1740,14 +1770,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1757,14 +1787,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1780,7 +1810,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1797,7 +1827,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1823,14 +1853,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1839,14 +1869,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1856,14 +1886,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1872,14 +1902,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1896,7 +1926,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1922,14 +1952,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1938,14 +1968,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1955,14 +1985,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1971,14 +2001,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1988,14 +2018,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2004,14 +2034,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2021,14 +2051,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2044,7 +2074,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2054,14 +2084,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2070,14 +2100,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2087,14 +2117,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2103,14 +2133,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2120,11 +2150,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2136,14 +2166,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2153,14 +2183,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2169,14 +2199,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2186,14 +2216,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2202,14 +2232,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2219,14 +2249,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2235,14 +2265,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2252,14 +2282,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2275,7 +2305,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2285,14 +2315,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2301,14 +2331,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2318,14 +2348,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2334,14 +2364,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2351,14 +2381,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2367,14 +2397,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2384,14 +2414,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2407,7 +2437,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2417,14 +2447,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2433,14 +2463,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2450,14 +2480,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2466,14 +2496,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2483,14 +2513,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2499,14 +2529,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2516,14 +2546,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2532,14 +2562,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2549,14 +2579,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2565,14 +2595,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2582,14 +2612,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2598,14 +2628,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2615,14 +2645,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2631,14 +2661,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2648,14 +2678,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2664,14 +2694,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2681,14 +2711,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2697,14 +2727,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2714,14 +2744,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2730,14 +2760,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2747,11 +2777,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2763,14 +2793,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2780,14 +2810,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2796,14 +2826,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2813,14 +2843,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2829,14 +2859,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2846,14 +2876,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2862,14 +2892,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2879,14 +2909,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2895,14 +2925,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2912,14 +2942,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2928,14 +2958,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2945,14 +2975,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2961,14 +2991,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2978,14 +3008,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>179</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2994,14 +3024,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3011,7 +3041,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3044,14 +3074,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3060,31 +3090,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3093,31 +3123,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>189</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3126,31 +3156,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3159,31 +3189,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3192,31 +3222,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>199</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3225,31 +3255,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3258,31 +3288,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>86</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3291,31 +3321,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3324,31 +3354,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3357,66 +3387,231 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>86</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3811.98</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>211</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>53</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>54</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>200</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>212</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c t="s" r="Q71" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>213</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>49</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>54</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>214</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>215</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>25</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>54</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>71</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>217</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>53</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>54</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>218</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>219</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>53</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>54</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>220</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3929.5799999999999</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>221</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>222</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>223</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3745,10 +3940,35 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -674,7 +674,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 8:15 PM</t>
+    <t>Wednesday, 28 May, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -71,6 +71,21 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -95,9 +110,6 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -227,454 +239,484 @@
     <t>50.00</t>
   </si>
   <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>DIACEREIN 50MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>164.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 20/1680MG PD. FOR ORAL SUSP. 7 SACHETS</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>4.9000</t>
+  </si>
+  <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
+    <t>EMPACOZA PLUS 10/5MG 30 F.C TABS</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>117.8100</t>
+  </si>
+  <si>
+    <t>EPISOPT EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>4:10</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FLUCA EYE SUSP. DROP 5 ML</t>
+  </si>
+  <si>
+    <t>45.50</t>
+  </si>
+  <si>
+    <t>45.5000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>LASIX 20MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LEVOFLOXACIN 750 MG 5 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
+    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PRIVACOND EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>ROYAL JELLY 1000MG 12 CAPS</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 100 MG 8F.C. TABS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TEBONINA FORTE 40MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>TOBRADEX EYE OINT. 3.5 GM</t>
+  </si>
+  <si>
+    <t>42.50</t>
+  </si>
+  <si>
+    <t>42.5000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>TRILEPTAL 300MG 50 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>356.00</t>
+  </si>
+  <si>
+    <t>71.2000</t>
+  </si>
+  <si>
+    <t>ULCEZOLE 60MG 20 DEL. REL. CAPSULES</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>VITACID C 500MG 12 EFF. GRAN. IN SACHETS</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
+  </si>
+  <si>
+    <t>-59.4000</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 50 GM</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>ماسك صنفره هاي لايف</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEXAFLOX EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>DIACEREIN 50MG 30 CAP.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>DICETEL 100MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>164.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>ECOTO 20 PIECES</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>62.5000</t>
-  </si>
-  <si>
-    <t>EMPACOZA PLUS 10/5MG 30 F.C TABS</t>
-  </si>
-  <si>
-    <t>357.00</t>
-  </si>
-  <si>
-    <t>117.8100</t>
-  </si>
-  <si>
-    <t>EPISOPT EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>4:10</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FLUCA EYE SUSP. DROP 5 ML</t>
-  </si>
-  <si>
-    <t>45.50</t>
-  </si>
-  <si>
-    <t>45.5000</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>LEVOFLOXACIN 750 MG 5 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>480.0000</t>
-  </si>
-  <si>
-    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PRIVACOND EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>ROYAL JELLY 1000MG 12 CAPS</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>37.9200</t>
-  </si>
-  <si>
-    <t>SANSOVIT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 100 MG 8F.C. TABS</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>TEBONINA FORTE 40MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>TOBRADEX EYE OINT. 3.5 GM</t>
-  </si>
-  <si>
-    <t>42.50</t>
-  </si>
-  <si>
-    <t>42.5000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>TRILEPTAL 300MG 50 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>356.00</t>
-  </si>
-  <si>
-    <t>71.2000</t>
-  </si>
-  <si>
-    <t>ULCEZOLE 60MG 20 DEL. REL. CAPSULES</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>198.0000</t>
-  </si>
-  <si>
-    <t>URINEX 24 CAPS</t>
-  </si>
-  <si>
-    <t>VITACID C 500MG 12 EFF. GRAN. IN SACHETS</t>
-  </si>
-  <si>
-    <t>16.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
-  </si>
-  <si>
-    <t>-59.4000</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>ZADOGLOBIN 20 CAPS</t>
-  </si>
-  <si>
-    <t>67.5000</t>
-  </si>
-  <si>
-    <t>ZINCTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>ايفا كريم 170 جم</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>ماسك صنفره هاي لايف</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 8:22 PM</t>
+    <t>Wednesday, 28 May, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1398,7 +1440,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1407,14 +1449,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1424,14 +1466,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1464,7 +1506,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1497,7 +1539,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1546,7 +1588,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1556,14 +1598,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1579,7 +1621,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1596,7 +1638,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1605,14 +1647,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1629,7 +1671,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1651,18 +1693,18 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1671,20 +1713,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1695,7 +1737,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1721,14 +1763,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1737,14 +1779,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1754,14 +1796,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1770,14 +1812,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1787,11 +1829,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1803,14 +1845,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1820,11 +1862,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1836,14 +1878,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1857,10 +1899,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1869,14 +1911,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1886,14 +1928,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1902,14 +1944,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1919,14 +1961,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1935,14 +1977,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1952,14 +1994,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1968,14 +2010,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1985,14 +2027,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2001,14 +2043,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2025,7 +2067,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2041,7 +2083,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2051,14 +2093,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>95</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2067,14 +2109,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2084,14 +2126,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2100,14 +2142,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2117,14 +2159,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2140,7 +2182,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2157,7 +2199,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2173,7 +2215,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2183,11 +2225,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2199,14 +2241,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2216,14 +2258,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2232,14 +2274,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2249,11 +2291,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2265,14 +2307,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2282,14 +2324,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2298,14 +2340,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2322,7 +2364,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2331,14 +2373,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2348,14 +2390,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2364,14 +2406,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2385,10 +2427,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2397,14 +2439,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2414,14 +2456,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2430,14 +2472,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2447,14 +2489,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>95</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2463,14 +2505,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2480,14 +2522,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2496,14 +2538,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2513,14 +2555,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2529,14 +2571,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2546,14 +2588,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2562,14 +2604,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2579,14 +2621,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2595,14 +2637,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2619,7 +2661,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2635,7 +2677,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,14 +2687,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2661,14 +2703,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,14 +2720,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2694,14 +2736,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2718,7 +2760,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2734,7 +2776,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2751,7 +2793,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2767,7 +2809,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,14 +2819,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2793,14 +2835,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2810,14 +2852,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2826,14 +2868,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,14 +2885,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2859,14 +2901,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2876,14 +2918,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2892,14 +2934,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,11 +2951,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2925,14 +2967,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,14 +2984,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2958,14 +3000,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,14 +3017,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2991,14 +3033,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3008,14 +3050,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3024,14 +3066,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3041,11 +3083,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3057,14 +3099,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3074,14 +3116,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3090,14 +3132,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,14 +3149,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3130,7 +3172,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3147,7 +3189,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3163,7 +3205,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3173,14 +3215,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>191</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3206,14 +3248,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3222,14 +3264,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3239,14 +3281,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3262,13 +3304,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3279,7 +3321,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3295,21 +3337,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>201</v>
@@ -3328,24 +3370,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3361,24 +3403,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3387,31 +3429,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>210</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3420,31 +3462,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3453,31 +3495,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>95</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3493,24 +3535,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3519,31 +3561,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3559,13 +3601,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3573,45 +3615,243 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3929.5799999999999</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>221</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>222</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>57</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>58</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
         <v>223</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>225</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>57</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>58</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>213</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>227</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>53</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>58</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>228</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>229</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>30</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>58</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>75</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>230</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>57</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>58</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>231</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>233</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>57</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>58</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>234</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4244.4799999999996</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>235</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>236</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>237</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3965,10 +4205,40 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -383,16 +383,16 @@
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
-    <t>4:10</t>
+    <t>4:8</t>
   </si>
   <si>
     <t>144.00</t>
   </si>
   <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>0:4</t>
+    <t>70.5600</t>
+  </si>
+  <si>
+    <t>0:6</t>
   </si>
   <si>
     <t>FLUCA EYE SUSP. DROP 5 ML</t>
@@ -539,9 +539,6 @@
     <t>21.00</t>
   </si>
   <si>
-    <t>21.0000</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -716,7 +713,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 8:44 PM</t>
+    <t>Wednesday, 28 May, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3040,7 +3037,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3054,10 +3051,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3066,7 +3063,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3083,11 +3080,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3099,7 +3096,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3116,11 +3113,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3132,7 +3129,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3149,11 +3146,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>24</v>
@@ -3165,7 +3162,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3182,11 +3179,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>24</v>
@@ -3198,7 +3195,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3215,11 +3212,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3231,7 +3228,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3248,11 +3245,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>24</v>
@@ -3264,7 +3261,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3297,7 +3294,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3314,11 +3311,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>24</v>
@@ -3330,7 +3327,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3347,14 +3344,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>200</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>201</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3363,7 +3360,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3380,11 +3377,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>24</v>
@@ -3396,7 +3393,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3417,7 +3414,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3429,7 +3426,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3446,11 +3443,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>24</v>
@@ -3462,7 +3459,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3479,11 +3476,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>24</v>
@@ -3495,7 +3492,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3512,14 +3509,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3528,14 +3525,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3549,7 +3546,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>24</v>
@@ -3561,7 +3558,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3594,7 +3591,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3611,11 +3608,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>98</v>
@@ -3627,7 +3624,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3644,14 +3641,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>28</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3660,7 +3657,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3677,11 +3674,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -3693,7 +3690,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3710,7 +3707,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3726,7 +3723,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3759,7 +3756,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3776,11 +3773,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>24</v>
@@ -3792,7 +3789,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3809,11 +3806,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>98</v>
@@ -3821,13 +3818,13 @@
     </row>
     <row r="82" ht="25.5" customHeight="1">
       <c r="P82" s="13">
-        <v>4244.4799999999996</v>
+        <v>4288.5200000000004</v>
       </c>
       <c r="Q82" s="13"/>
     </row>
     <row r="83" ht="16.5" customHeight="1">
       <c t="s" r="A83" s="14">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -3835,13 +3832,13 @@
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c t="s" r="G83" s="15">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
       <c r="J83" s="16"/>
       <c t="s" r="K83" s="17">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L83" s="17"/>
       <c r="M83" s="17"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -537,6 +537,9 @@
   </si>
   <si>
     <t>21.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
   </si>
   <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
@@ -3037,7 +3040,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3051,10 +3054,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3063,7 +3066,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3080,11 +3083,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3096,7 +3099,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3113,11 +3116,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3129,7 +3132,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3146,11 +3149,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>24</v>
@@ -3162,7 +3165,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3179,11 +3182,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>24</v>
@@ -3195,7 +3198,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3212,11 +3215,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3228,7 +3231,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3245,11 +3248,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>24</v>
@@ -3261,7 +3264,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3294,7 +3297,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3311,11 +3314,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>24</v>
@@ -3327,7 +3330,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3344,14 +3347,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3360,7 +3363,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3377,11 +3380,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>24</v>
@@ -3393,7 +3396,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3414,7 +3417,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3426,7 +3429,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3443,11 +3446,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>24</v>
@@ -3459,7 +3462,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3476,11 +3479,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>24</v>
@@ -3492,7 +3495,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3509,14 +3512,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3525,14 +3528,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3546,7 +3549,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>24</v>
@@ -3558,7 +3561,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3591,7 +3594,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3608,11 +3611,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>98</v>
@@ -3624,7 +3627,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3641,14 +3644,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>28</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3657,7 +3660,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3674,11 +3677,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -3690,7 +3693,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3707,7 +3710,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3723,7 +3726,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3756,7 +3759,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3773,11 +3776,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>24</v>
@@ -3789,7 +3792,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3806,11 +3809,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>98</v>
@@ -3818,13 +3821,13 @@
     </row>
     <row r="82" ht="25.5" customHeight="1">
       <c r="P82" s="13">
-        <v>4288.5200000000004</v>
+        <v>4309.5200000000004</v>
       </c>
       <c r="Q82" s="13"/>
     </row>
     <row r="83" ht="16.5" customHeight="1">
       <c t="s" r="A83" s="14">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -3832,13 +3835,13 @@
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c t="s" r="G83" s="15">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
       <c r="J83" s="16"/>
       <c t="s" r="K83" s="17">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L83" s="17"/>
       <c r="M83" s="17"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>13:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
@@ -200,12 +212,6 @@
     <t>0:2</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
     <t>CEFAZONE 1 GM VIAL</t>
   </si>
   <si>
@@ -395,6 +401,15 @@
     <t>0:6</t>
   </si>
   <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>FLUCA EYE SUSP. DROP 5 ML</t>
   </si>
   <si>
@@ -560,6 +575,12 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>TOBRADEX EYE OINT. 3.5 GM</t>
   </si>
   <si>
@@ -716,7 +737,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 9:01 PM</t>
+    <t>Wednesday, 28 May, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1506,7 +1527,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1572,7 +1593,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1621,7 +1642,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1631,14 +1652,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1654,7 +1675,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1671,7 +1692,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1680,14 +1701,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1704,7 +1725,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1726,15 +1747,15 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>24</v>
@@ -1746,20 +1767,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1770,7 +1791,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1796,14 +1817,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1812,14 +1833,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1829,14 +1850,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1845,14 +1866,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1862,11 +1883,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1878,14 +1899,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1895,14 +1916,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1911,14 +1932,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1928,14 +1949,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1944,14 +1965,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1965,10 +1986,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1977,14 +1998,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1994,11 +2015,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>24</v>
@@ -2010,14 +2031,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2027,14 +2048,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2050,7 +2071,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2060,14 +2081,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2076,14 +2097,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2093,14 +2114,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2109,14 +2130,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2126,14 +2147,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>98</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2142,14 +2163,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2159,14 +2180,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2182,7 +2203,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2192,14 +2213,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2208,14 +2229,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2225,14 +2246,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2241,14 +2262,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2258,11 +2279,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2274,14 +2295,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2291,11 +2312,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2307,14 +2328,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2324,14 +2345,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2340,14 +2361,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2357,14 +2378,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2373,14 +2394,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2390,11 +2411,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2406,14 +2427,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2423,14 +2444,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2439,14 +2460,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2456,14 +2477,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2472,14 +2493,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2489,14 +2510,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2522,11 +2543,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
@@ -2538,14 +2559,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2555,11 +2576,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>24</v>
@@ -2571,7 +2592,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2588,14 +2609,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>98</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2604,14 +2625,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2621,11 +2642,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2637,7 +2658,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2654,14 +2675,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2670,14 +2691,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2687,7 +2708,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2710,7 +2731,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,11 +2774,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>24</v>
@@ -2769,14 +2790,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2786,11 +2807,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>24</v>
@@ -2802,14 +2823,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2819,11 +2840,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>24</v>
@@ -2835,14 +2856,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2852,14 +2873,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2868,14 +2889,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2885,11 +2906,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>24</v>
@@ -2901,14 +2922,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2918,14 +2939,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2934,14 +2955,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2951,14 +2972,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2967,14 +2988,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2984,11 +3005,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>24</v>
@@ -3000,14 +3021,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3017,11 +3038,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3033,7 +3054,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3050,14 +3071,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>95</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3066,14 +3087,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3083,11 +3104,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3099,7 +3120,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3116,14 +3137,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3132,7 +3153,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3149,14 +3170,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3165,14 +3186,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3182,14 +3203,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3198,14 +3219,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3215,11 +3236,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3231,14 +3252,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3248,11 +3269,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>24</v>
@@ -3264,14 +3285,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3281,11 +3302,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>24</v>
@@ -3304,7 +3325,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3321,7 +3342,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3337,7 +3358,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3347,14 +3368,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>201</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3370,7 +3391,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3380,11 +3401,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>24</v>
@@ -3396,14 +3417,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3413,14 +3434,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3429,14 +3450,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3446,14 +3467,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>208</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3469,13 +3490,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3502,24 +3523,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>214</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3528,28 +3549,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>24</v>
@@ -3561,28 +3582,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>24</v>
@@ -3601,13 +3622,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3615,10 +3636,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>221</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>98</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3634,24 +3655,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>224</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3667,24 +3688,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3693,31 +3714,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3733,24 +3754,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>24</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3759,31 +3780,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3792,7 +3813,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3805,53 +3826,152 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4309.5200000000004</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>235</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>236</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>34</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>62</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>77</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>237</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>61</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>62</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>238</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>240</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>61</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>62</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>241</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4417.4300000000003</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>242</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>243</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>244</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4235,10 +4355,25 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -167,9 +179,6 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>BETASERC 16MG 60 TAB</t>
   </si>
   <si>
@@ -251,252 +260,270 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DIACEREIN 50MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>164.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
     <t>6:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEXAFLOX EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 20/1680MG PD. FOR ORAL SUSP. 7 SACHETS</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>4.9000</t>
+  </si>
+  <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
+    <t>EMPACOZA PLUS 10/5MG 30 F.C TABS</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>117.8100</t>
+  </si>
+  <si>
+    <t>EPISOPT EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>4:8</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>70.5600</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>FLUCA EYE SUSP. DROP 5 ML</t>
+  </si>
+  <si>
+    <t>45.50</t>
+  </si>
+  <si>
+    <t>45.5000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>LASIX 20MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LEVOFLOXACIN 750 MG 5 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
+    <t>MACRO PANTHENOL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>DIACEREIN 50MG 30 CAP.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>DICETEL 100MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>164.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 20/1680MG PD. FOR ORAL SUSP. 7 SACHETS</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>4.9000</t>
-  </si>
-  <si>
-    <t>ECOTO 20 PIECES</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>62.5000</t>
-  </si>
-  <si>
-    <t>EMPACOZA PLUS 10/5MG 30 F.C TABS</t>
-  </si>
-  <si>
-    <t>357.00</t>
-  </si>
-  <si>
-    <t>117.8100</t>
-  </si>
-  <si>
-    <t>EPISOPT EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>4:8</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>70.5600</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>FLEXILAX 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>FLUCA EYE SUSP. DROP 5 ML</t>
-  </si>
-  <si>
-    <t>45.50</t>
-  </si>
-  <si>
-    <t>45.5000</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>LASIX 20MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LEVOFLOXACIN 750 MG 5 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>480.0000</t>
-  </si>
-  <si>
-    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -620,6 +647,15 @@
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>VITACID C 500MG 12 EFF. GRAN. IN SACHETS</t>
   </si>
   <si>
@@ -662,12 +698,6 @@
     <t>ايفا كريم 170 جم</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -710,7 +740,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>15.0000</t>
+    <t>18.0000</t>
   </si>
   <si>
     <t>سهايه الجو</t>
@@ -737,7 +767,16 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 9:03 PM</t>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>Wednesday, 28 May, 2025 9:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1626,7 +1665,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1675,7 +1714,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1685,14 +1724,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1708,7 +1747,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1725,7 +1764,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1741,7 +1780,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1751,14 +1790,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1767,28 +1806,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>24</v>
@@ -1800,31 +1839,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1833,14 +1872,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1850,14 +1889,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1873,7 +1912,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1883,14 +1922,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1906,7 +1945,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1916,7 +1955,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1939,7 +1978,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1949,14 +1988,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1972,7 +2011,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1982,14 +2021,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2005,7 +2044,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2015,14 +2054,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2031,14 +2070,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2048,11 +2087,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>24</v>
@@ -2064,14 +2103,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2081,14 +2120,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2097,14 +2136,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2114,14 +2153,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2137,7 +2176,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2154,7 +2193,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2170,7 +2209,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2180,14 +2219,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2196,14 +2235,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2213,14 +2252,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2229,14 +2268,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2246,14 +2285,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2262,14 +2301,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2286,7 +2325,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2302,7 +2341,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2312,11 +2351,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2328,14 +2367,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2345,11 +2384,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2361,14 +2400,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2378,14 +2417,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2394,14 +2433,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2411,14 +2450,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2427,14 +2466,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2444,11 +2483,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2460,14 +2499,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2484,7 +2523,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2493,14 +2532,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2517,7 +2556,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2526,14 +2565,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2543,14 +2582,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2559,14 +2598,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2576,11 +2615,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>24</v>
@@ -2592,14 +2631,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2609,11 +2648,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>24</v>
@@ -2625,14 +2664,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2642,11 +2681,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2658,7 +2697,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2675,14 +2714,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2691,14 +2730,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2708,11 +2747,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>24</v>
@@ -2724,7 +2763,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2741,14 +2780,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2757,14 +2796,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2774,11 +2813,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>24</v>
@@ -2790,14 +2829,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2807,11 +2846,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>24</v>
@@ -2830,7 +2869,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2840,11 +2879,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>24</v>
@@ -2856,14 +2895,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2873,11 +2912,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -2889,14 +2928,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2906,11 +2945,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>24</v>
@@ -2929,7 +2968,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2939,14 +2978,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2955,14 +2994,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2972,11 +3011,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>24</v>
@@ -2988,14 +3027,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3005,11 +3044,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>24</v>
@@ -3021,14 +3060,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3045,7 +3084,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3094,7 +3133,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3111,7 +3150,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3127,7 +3166,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3144,7 +3183,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3177,7 +3216,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3193,7 +3232,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3226,7 +3265,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3236,14 +3275,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3252,7 +3291,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3269,14 +3308,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3285,14 +3324,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3302,14 +3341,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3318,14 +3357,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3335,7 +3374,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3358,7 +3397,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3391,7 +3430,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3401,11 +3440,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>24</v>
@@ -3417,14 +3456,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3434,14 +3473,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3450,14 +3489,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3467,14 +3506,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>208</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3483,14 +3522,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3500,11 +3539,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>24</v>
@@ -3523,7 +3562,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3533,14 +3572,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3549,14 +3588,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3566,11 +3605,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>24</v>
@@ -3582,31 +3621,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3615,31 +3654,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>221</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3648,31 +3687,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3681,28 +3720,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>24</v>
@@ -3714,31 +3753,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3754,13 +3793,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3768,7 +3807,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>231</v>
@@ -3787,24 +3826,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3813,31 +3852,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3853,24 +3892,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3879,31 +3918,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3912,66 +3951,231 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4417.4300000000003</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>242</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>243</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>244</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>60</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>65</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>245</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>246</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>34</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>65</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>80</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>247</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>64</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>65</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>248</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>250</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>64</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>65</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>251</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>252</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>253</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>65</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>254</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>4976.1899999999996</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>255</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>256</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>257</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4370,10 +4574,35 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -200,15 +200,24 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>BIOREST MASSAGE SPRAY</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>30.50</t>
   </si>
   <si>
@@ -776,7 +785,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 9:28 PM</t>
+    <t>Wednesday, 28 May, 2025 10:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1846,21 +1855,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>24</v>
@@ -1872,31 +1881,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1905,14 +1914,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1922,14 +1931,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1945,7 +1954,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1955,14 +1964,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1978,7 +1987,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1988,7 +1997,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2011,7 +2020,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2021,14 +2030,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2044,7 +2053,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2054,14 +2063,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2070,14 +2079,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2094,7 +2103,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2110,7 +2119,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2143,7 +2152,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2153,14 +2162,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2169,14 +2178,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2186,14 +2195,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2209,7 +2218,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2226,7 +2235,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2242,7 +2251,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2252,14 +2261,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>103</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2268,14 +2277,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2285,14 +2294,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2308,7 +2317,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2318,14 +2327,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2341,7 +2350,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2351,14 +2360,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2367,14 +2376,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2407,7 +2416,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2440,7 +2449,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2457,7 +2466,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2473,7 +2482,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2490,7 +2499,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2506,7 +2515,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2539,7 +2548,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2549,14 +2558,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2565,14 +2574,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2582,14 +2591,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>136</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2605,7 +2614,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2622,7 +2631,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2638,7 +2647,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2652,7 +2661,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>24</v>
@@ -2664,14 +2673,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2681,11 +2690,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2704,7 +2713,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2714,11 +2723,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>24</v>
@@ -2730,14 +2739,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2747,11 +2756,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>24</v>
@@ -2763,14 +2772,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2780,14 +2789,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>103</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2803,7 +2812,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2813,14 +2822,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2829,14 +2838,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2846,11 +2855,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>24</v>
@@ -2862,14 +2871,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2879,11 +2888,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>24</v>
@@ -2902,7 +2911,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2912,11 +2921,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -2928,14 +2937,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2945,11 +2954,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>24</v>
@@ -2968,7 +2977,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2978,11 +2987,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>24</v>
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3034,7 +3043,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3044,11 +3053,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>24</v>
@@ -3060,14 +3069,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3077,14 +3086,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3093,14 +3102,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3117,7 +3126,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3133,7 +3142,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3166,7 +3175,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3183,7 +3192,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3199,7 +3208,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3216,7 +3225,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3232,7 +3241,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3249,7 +3258,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3265,7 +3274,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3282,7 +3291,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3315,7 +3324,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3364,7 +3373,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3374,11 +3383,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3390,14 +3399,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3407,14 +3416,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3430,7 +3439,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3463,7 +3472,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3480,7 +3489,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3496,7 +3505,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3513,7 +3522,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3529,7 +3538,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3539,11 +3548,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>24</v>
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3572,11 +3581,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>24</v>
@@ -3595,7 +3604,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3628,7 +3637,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3638,14 +3647,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>220</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3661,7 +3670,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3671,14 +3680,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>223</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3694,7 +3703,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3704,14 +3713,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3720,7 +3729,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3737,14 +3746,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3753,28 +3762,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>24</v>
@@ -3786,31 +3795,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>231</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3826,24 +3835,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>234</v>
-      </c>
-      <c t="s" r="Q80" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3859,21 +3868,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>24</v>
@@ -3885,31 +3894,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>103</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3925,13 +3934,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3939,10 +3948,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>241</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3958,24 +3967,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>60</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3984,31 +3993,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>103</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4017,31 +4026,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4050,28 +4059,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>83</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>24</v>
@@ -4090,13 +4099,13 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4104,10 +4113,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>103</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4116,20 +4125,20 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>68</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4137,45 +4146,78 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>24</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4976.1899999999996</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>255</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
         <v>256</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>64</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
         <v>257</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>5056.1899999999996</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>258</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>259</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>260</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4599,10 +4641,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -59,6 +59,21 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>3FLY 300 TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -83,9 +98,6 @@
     <t>58.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
@@ -203,9 +215,6 @@
     <t>BIOREST MASSAGE SPRAY</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>80.00</t>
   </si>
   <si>
@@ -266,6 +275,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -455,6 +473,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>244.0000</t>
+  </si>
+  <si>
     <t>LASIX 20MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -530,13 +557,10 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>46.0000</t>
+    <t>69.0000</t>
   </si>
   <si>
     <t>PRIVACOND EYE DROPS 15 ML</t>
@@ -548,6 +572,18 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>PROSTRIDE 5MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>183.00</t>
+  </si>
+  <si>
+    <t>60.3900</t>
+  </si>
+  <si>
+    <t>REPAION-N GEL 50 GM</t>
+  </si>
+  <si>
     <t>ROYAL JELLY 1000MG 12 CAPS</t>
   </si>
   <si>
@@ -743,7 +779,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1465,18 +1501,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1485,14 +1521,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1502,14 +1538,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1542,7 +1578,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1608,7 +1644,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1641,7 +1677,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1674,7 +1710,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1707,7 +1743,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1756,7 +1792,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1766,14 +1802,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1782,14 +1818,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1799,14 +1835,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1815,14 +1851,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1839,7 +1875,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1855,13 +1891,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1872,7 +1908,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1888,24 +1924,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1914,31 +1950,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1947,14 +1983,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1964,14 +2000,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1987,7 +2023,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1997,14 +2033,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2020,7 +2056,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2030,7 +2066,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2053,7 +2089,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2063,14 +2099,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2086,7 +2122,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2096,14 +2132,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2112,14 +2148,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2129,14 +2165,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2145,14 +2181,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2169,7 +2205,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2185,7 +2221,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2195,14 +2231,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2211,14 +2247,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2228,14 +2264,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2244,14 +2280,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2261,14 +2297,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2284,7 +2320,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2294,14 +2330,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2310,14 +2346,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2327,14 +2363,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2343,14 +2379,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2360,14 +2396,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2393,11 +2429,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2409,14 +2445,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2426,14 +2462,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2442,14 +2478,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2482,7 +2518,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2499,7 +2535,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2515,7 +2551,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2548,7 +2584,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2565,7 +2601,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2581,7 +2617,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2591,14 +2627,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2607,14 +2643,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2624,11 +2660,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2640,14 +2676,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2657,14 +2693,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>142</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2680,7 +2716,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2694,10 +2730,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2706,14 +2742,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2723,14 +2759,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2739,14 +2775,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2756,14 +2792,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2772,14 +2808,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2789,14 +2825,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2805,14 +2841,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2822,14 +2858,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2838,14 +2874,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2855,14 +2891,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2871,14 +2907,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2888,14 +2924,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2904,14 +2940,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2921,14 +2957,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2937,14 +2973,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2954,14 +2990,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2970,14 +3006,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2987,14 +3023,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3003,14 +3039,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3027,7 +3063,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3043,7 +3079,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3053,14 +3089,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3069,14 +3105,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3086,14 +3122,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3102,14 +3138,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3119,14 +3155,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3135,14 +3171,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3152,14 +3188,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3168,14 +3204,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3185,14 +3221,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3201,14 +3237,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3218,14 +3254,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3234,14 +3270,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3251,14 +3287,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3267,14 +3303,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3284,11 +3320,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3300,14 +3336,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3317,14 +3353,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>103</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3333,14 +3369,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3350,14 +3386,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3366,14 +3402,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3383,11 +3419,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3399,14 +3435,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3416,14 +3452,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3432,14 +3468,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3449,14 +3485,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3465,14 +3501,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3482,14 +3518,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3498,14 +3534,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3515,11 +3551,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3531,14 +3567,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3548,14 +3584,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3564,14 +3600,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3581,14 +3617,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3597,14 +3633,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3614,14 +3650,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3630,14 +3666,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3647,14 +3683,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3663,14 +3699,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3680,14 +3716,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>223</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3696,14 +3732,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3713,14 +3749,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3729,14 +3765,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3746,14 +3782,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3762,14 +3798,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3779,14 +3815,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3795,31 +3831,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3828,31 +3864,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3861,31 +3897,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>71</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3894,31 +3930,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3927,31 +3963,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>106</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3960,31 +3996,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>244</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3993,31 +4029,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>246</v>
-      </c>
-      <c t="s" r="Q85" s="12">
-        <v>60</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4033,24 +4069,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>55</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>106</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4059,31 +4095,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4092,31 +4128,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4125,31 +4161,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>106</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4158,66 +4194,231 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>5056.1899999999996</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>258</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>259</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>64</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>18</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
         <v>260</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>261</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>38</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>18</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>86</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>262</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>71</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>18</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>263</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>265</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>71</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>18</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>266</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>267</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>268</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>18</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>269</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5630.6049999999996</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>270</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>271</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>272</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4646,10 +4847,35 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -314,6 +314,12 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>DEXAGLOBE 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -629,6 +635,15 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -779,9 +794,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -821,7 +833,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 10:13 PM</t>
+    <t>Wednesday, 28 May, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2287,7 +2299,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2297,14 +2309,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2313,14 +2325,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2330,14 +2342,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2346,14 +2358,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2363,14 +2375,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2379,14 +2391,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2396,14 +2408,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2412,14 +2424,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2429,14 +2441,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2445,14 +2457,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2462,14 +2474,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2478,14 +2490,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2495,14 +2507,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2511,14 +2523,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2528,11 +2540,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2544,14 +2556,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2561,11 +2573,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2577,14 +2589,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2594,14 +2606,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2610,14 +2622,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2627,14 +2639,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2643,14 +2655,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2660,11 +2672,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2676,14 +2688,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2693,14 +2705,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2709,14 +2721,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2726,14 +2738,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2742,14 +2754,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2759,14 +2771,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2775,14 +2787,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2792,11 +2804,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>17</v>
@@ -2815,7 +2827,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2829,7 +2841,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>17</v>
@@ -2841,14 +2853,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2858,14 +2870,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2874,7 +2886,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2891,14 +2903,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>17</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2914,7 +2926,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2924,11 +2936,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>17</v>
@@ -2940,14 +2952,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2957,14 +2969,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2973,14 +2985,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2990,14 +3002,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>17</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3006,14 +3018,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3023,11 +3035,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>17</v>
@@ -3039,14 +3051,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3056,11 +3068,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>17</v>
@@ -3072,14 +3084,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3089,11 +3101,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>17</v>
@@ -3112,7 +3124,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3122,11 +3134,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>17</v>
@@ -3138,14 +3150,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3155,11 +3167,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>17</v>
@@ -3171,14 +3183,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3188,11 +3200,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>17</v>
@@ -3204,14 +3216,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3221,11 +3233,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>17</v>
@@ -3237,14 +3249,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3254,14 +3266,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3270,14 +3282,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3287,14 +3299,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3303,14 +3315,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3320,14 +3332,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3336,14 +3348,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3353,14 +3365,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3369,14 +3381,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3386,11 +3398,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>17</v>
@@ -3402,14 +3414,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3419,14 +3431,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3435,14 +3447,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3452,14 +3464,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3468,14 +3480,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3485,14 +3497,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3501,14 +3513,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3518,14 +3530,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3534,7 +3546,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3551,14 +3563,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3567,14 +3579,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3584,11 +3596,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3600,14 +3612,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3617,7 +3629,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3657,7 +3669,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3673,7 +3685,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3683,14 +3695,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3699,14 +3711,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3716,14 +3728,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3732,14 +3744,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3749,11 +3761,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>17</v>
@@ -3765,14 +3777,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3782,14 +3794,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3798,14 +3810,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3815,11 +3827,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>17</v>
@@ -3831,14 +3843,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3848,11 +3860,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>17</v>
@@ -3864,14 +3876,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3881,14 +3893,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>235</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3897,7 +3909,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3914,11 +3926,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>17</v>
@@ -3930,14 +3942,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3947,14 +3959,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>240</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3970,7 +3982,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3980,11 +3992,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>17</v>
@@ -3996,31 +4008,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4029,31 +4041,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>246</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4062,14 +4074,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>111</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4079,11 +4091,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>17</v>
@@ -4095,14 +4107,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4112,14 +4124,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>17</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4128,14 +4140,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4145,14 +4157,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4161,14 +4173,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4178,14 +4190,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>256</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4194,7 +4206,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4211,14 +4223,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>64</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4234,7 +4246,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4251,7 +4263,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>112</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4267,7 +4279,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4277,14 +4289,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>86</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>87</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4293,14 +4305,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4310,14 +4322,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>17</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4333,7 +4345,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4343,14 +4355,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>232</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4359,14 +4371,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>71</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4376,49 +4388,115 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5630.6049999999996</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>269</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>71</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>18</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
         <v>270</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>271</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
         <v>272</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>18</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>273</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>5685.6049999999996</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>274</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>275</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>276</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4872,10 +4950,20 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -248,6 +248,18 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>CODILAR SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
@@ -344,9 +356,6 @@
     <t>DICETEL 100MG 20 F.C. TABS.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>82.00</t>
   </si>
   <si>
@@ -566,7 +575,7 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>69.0000</t>
+    <t>115.0000</t>
   </si>
   <si>
     <t>PRIVACOND EYE DROPS 15 ML</t>
@@ -764,36 +773,42 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
     <t>15:0</t>
   </si>
   <si>
-    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>سائل ريد</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -833,7 +848,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 10:18 PM</t>
+    <t>Wednesday, 28 May, 2025 10:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2068,7 +2083,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2078,14 +2093,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2094,14 +2109,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2111,11 +2126,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2127,14 +2142,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2144,14 +2159,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2160,14 +2175,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2177,14 +2192,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2193,14 +2208,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2217,7 +2232,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2233,7 +2248,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2243,14 +2258,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2259,14 +2274,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2276,11 +2291,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -2292,7 +2307,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2309,11 +2324,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>17</v>
@@ -2325,14 +2340,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2342,14 +2357,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2358,14 +2373,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2375,14 +2390,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2391,14 +2406,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2408,14 +2423,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2424,14 +2439,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2448,7 +2463,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2457,14 +2472,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2474,14 +2489,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2497,7 +2512,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2507,14 +2522,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2530,7 +2545,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2540,14 +2555,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2556,14 +2571,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2596,7 +2611,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2629,7 +2644,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2646,7 +2661,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2662,7 +2677,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2679,7 +2694,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2695,7 +2710,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2728,7 +2743,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2738,14 +2753,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>144</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2754,14 +2769,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2771,14 +2786,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2794,7 +2809,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2811,7 +2826,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2827,7 +2842,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2841,7 +2856,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>17</v>
@@ -2853,14 +2868,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2870,11 +2885,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>17</v>
@@ -2893,7 +2908,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2910,7 +2925,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2936,14 +2951,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2952,14 +2967,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2969,11 +2984,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>17</v>
@@ -2985,14 +3000,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3002,14 +3017,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3025,7 +3040,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3035,14 +3050,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3051,14 +3066,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3068,11 +3083,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>17</v>
@@ -3084,14 +3099,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3101,11 +3116,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>17</v>
@@ -3124,7 +3139,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3134,11 +3149,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>17</v>
@@ -3150,14 +3165,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3167,11 +3182,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>17</v>
@@ -3190,7 +3205,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3200,11 +3215,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>17</v>
@@ -3216,14 +3231,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3256,7 +3271,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3266,11 +3281,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>17</v>
@@ -3282,14 +3297,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3299,14 +3314,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3322,7 +3337,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3339,7 +3354,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3355,7 +3370,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3372,7 +3387,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3388,7 +3403,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3398,14 +3413,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3414,14 +3429,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3431,11 +3446,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>17</v>
@@ -3454,7 +3469,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3471,7 +3486,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3487,7 +3502,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3504,7 +3519,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3520,7 +3535,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3537,7 +3552,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3553,7 +3568,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3570,7 +3585,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3586,7 +3601,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3603,7 +3618,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3619,7 +3634,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3685,7 +3700,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3695,11 +3710,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3711,14 +3726,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3728,14 +3743,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3751,7 +3766,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3784,7 +3799,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3801,7 +3816,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3817,7 +3832,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3834,7 +3849,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3850,7 +3865,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3860,11 +3875,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>17</v>
@@ -3876,14 +3891,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3893,11 +3908,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>17</v>
@@ -3916,7 +3931,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3949,7 +3964,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3959,14 +3974,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>240</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3982,7 +3997,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3992,14 +4007,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>243</v>
-      </c>
-      <c t="s" r="Q83" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4015,7 +4030,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4025,14 +4040,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4041,7 +4056,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4058,14 +4073,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4074,28 +4089,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>17</v>
@@ -4107,14 +4122,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4124,14 +4139,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>251</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4147,7 +4162,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4157,14 +4172,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>17</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4173,14 +4188,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4190,11 +4205,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>17</v>
@@ -4206,14 +4221,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4223,14 +4238,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4239,7 +4254,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4256,14 +4271,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>251</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4272,7 +4287,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4289,14 +4304,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>64</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4305,14 +4320,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4322,14 +4337,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>59</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>114</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4338,14 +4353,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4355,14 +4370,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4371,14 +4386,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4388,11 +4403,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>90</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>17</v>
@@ -4404,7 +4419,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4421,14 +4436,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4437,14 +4452,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>272</v>
+        <v>71</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4454,49 +4469,82 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>5685.6049999999996</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>274</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>275</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>276</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>277</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>18</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>278</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5764.6049999999996</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>279</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>280</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>281</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4960,10 +5008,15 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>14.3000</t>
   </si>
   <si>
+    <t>AUGRAM 1GM 14 TABS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -248,6 +257,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CODILAR SYRUP 120 ML</t>
   </si>
   <si>
@@ -302,9 +320,6 @@
     <t>6:1</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>35.6400</t>
   </si>
   <si>
@@ -488,6 +503,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>HEALSEC 40MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
   </si>
   <si>
@@ -518,6 +542,12 @@
     <t>MACRO PANTHENOL CREAM 50 GM</t>
   </si>
   <si>
+    <t>MOBITIL 15MG 6 SUPP.</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -812,9 +842,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>سهايه الجو</t>
   </si>
   <si>
@@ -848,7 +875,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 10:44 PM</t>
+    <t>Wednesday, 28 May, 2025 10:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1819,7 +1846,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1829,11 +1856,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1845,14 +1872,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1869,7 +1896,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1885,7 +1912,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1902,7 +1929,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1918,7 +1945,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1928,14 +1955,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1944,20 +1971,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1984,7 +2011,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1994,11 +2021,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>17</v>
@@ -2010,31 +2037,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2043,14 +2070,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2060,14 +2087,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2093,11 +2120,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
@@ -2109,14 +2136,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2126,11 +2153,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2142,14 +2169,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2159,14 +2186,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2182,7 +2209,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2199,7 +2226,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2215,7 +2242,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2225,7 +2252,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2248,7 +2275,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2258,14 +2285,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2274,14 +2301,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2291,14 +2318,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2307,14 +2334,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2324,14 +2351,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2340,14 +2367,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2357,11 +2384,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>17</v>
@@ -2380,7 +2407,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2390,14 +2417,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2406,14 +2433,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2423,14 +2450,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2439,14 +2466,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2456,14 +2483,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2472,14 +2499,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2489,14 +2516,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2505,14 +2532,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2522,14 +2549,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2538,14 +2565,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2555,14 +2582,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2571,14 +2598,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2588,11 +2615,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2604,14 +2631,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2621,14 +2648,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2637,14 +2664,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2654,11 +2681,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2670,14 +2697,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2687,14 +2714,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2703,14 +2730,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2720,11 +2747,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2736,14 +2763,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2753,14 +2780,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2769,14 +2796,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2786,14 +2813,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2802,14 +2829,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2819,11 +2846,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2835,14 +2862,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2852,14 +2879,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>17</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2868,14 +2895,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2885,14 +2912,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2908,7 +2935,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2941,7 +2968,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2955,10 +2982,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>117</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2967,14 +2994,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2984,7 +3011,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3007,7 +3034,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3017,11 +3044,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>17</v>
@@ -3033,7 +3060,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3050,14 +3077,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3066,14 +3093,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3083,11 +3110,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>17</v>
@@ -3099,14 +3126,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3116,11 +3143,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>17</v>
@@ -3132,7 +3159,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3149,14 +3176,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>17</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3165,14 +3192,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3182,11 +3209,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>17</v>
@@ -3198,14 +3225,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3215,11 +3242,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>17</v>
@@ -3231,14 +3258,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3248,11 +3275,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>17</v>
@@ -3264,14 +3291,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3281,11 +3308,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>17</v>
@@ -3297,14 +3324,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3314,11 +3341,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>17</v>
@@ -3330,14 +3357,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3347,14 +3374,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3363,14 +3390,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3403,7 +3430,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3420,7 +3447,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3436,7 +3463,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3446,11 +3473,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>17</v>
@@ -3469,7 +3496,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3486,7 +3513,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3502,7 +3529,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3519,7 +3546,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3535,7 +3562,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3552,7 +3579,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3568,7 +3595,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3578,14 +3605,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3594,14 +3621,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3611,14 +3638,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3627,14 +3654,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3644,11 +3671,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3660,7 +3687,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3677,14 +3704,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3693,14 +3720,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3710,11 +3737,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3726,14 +3753,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3743,14 +3770,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3759,14 +3786,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3776,14 +3803,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3792,14 +3819,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3809,14 +3836,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3825,14 +3852,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3842,11 +3869,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3858,7 +3885,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3875,14 +3902,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3891,14 +3918,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3908,11 +3935,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>17</v>
@@ -3964,7 +3991,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3981,7 +4008,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3997,7 +4024,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4007,14 +4034,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>243</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4030,7 +4057,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4040,11 +4067,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>17</v>
@@ -4056,14 +4083,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4073,14 +4100,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4089,14 +4116,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4106,7 +4133,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4129,24 +4156,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>17</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4155,31 +4182,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>255</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4188,31 +4215,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4228,21 +4255,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>17</v>
@@ -4254,14 +4281,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4271,14 +4298,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>43</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>117</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4287,14 +4314,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4304,11 +4331,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>59</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>265</v>
@@ -4327,7 +4354,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4337,14 +4364,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4353,14 +4380,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4370,14 +4397,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>117</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4393,7 +4420,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4403,14 +4430,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>90</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>91</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>17</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4419,14 +4446,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4436,14 +4463,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>17</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4452,14 +4479,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4469,14 +4496,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>240</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>117</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4485,14 +4512,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>67</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4506,45 +4533,177 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>17</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5764.6049999999996</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>279</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>38</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>18</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>96</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>280</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>74</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>18</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
         <v>281</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>283</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>74</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>18</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>284</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>285</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>286</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>18</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>287</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5957.6049999999996</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>288</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>289</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>290</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5013,10 +5172,30 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -875,7 +875,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 10:53 PM</t>
+    <t>Wednesday, 28 May, 2025 10:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -875,7 +875,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 10:56 PM</t>
+    <t>Wednesday, 28 May, 2025 10:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
@@ -113,9 +125,6 @@
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>52.00</t>
   </si>
   <si>
@@ -257,6 +266,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>CEREBROFORTE 800MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -494,6 +512,15 @@
     <t>20.00</t>
   </si>
   <si>
+    <t>FROST GEL 100 GM</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -542,12 +569,24 @@
     <t>MACRO PANTHENOL CREAM 50 GM</t>
   </si>
   <si>
+    <t>METHYL FOLATE 1000 MCG 90 TABS.(ILLEGAL IMPORT)</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG 6 SUPP.</t>
   </si>
   <si>
     <t>26.00</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -608,6 +647,15 @@
     <t>115.0000</t>
   </si>
   <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>PRIVACOND EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -659,9 +707,6 @@
     <t>SILDEN 100 MG 8F.C. TABS</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
     <t>7.9200</t>
   </si>
   <si>
@@ -782,6 +827,15 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>WINZOXIB 90MG 20 TAB</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t>ZADOGLOBIN 20 CAPS</t>
   </si>
   <si>
@@ -875,7 +929,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 10:57 PM</t>
+    <t>Wednesday, 28 May, 2025 10:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1714,7 +1768,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1724,14 +1778,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1740,14 +1794,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1757,11 +1811,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>17</v>
@@ -1773,14 +1827,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1790,11 +1844,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>17</v>
@@ -1806,14 +1860,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1823,14 +1877,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1839,14 +1893,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1879,7 +1933,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1889,11 +1943,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1905,14 +1959,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1929,7 +1983,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1945,7 +1999,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1962,7 +2016,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1978,7 +2032,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1988,14 +2042,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2004,20 +2058,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2044,7 +2098,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2054,11 +2108,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>17</v>
@@ -2070,31 +2124,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2103,14 +2157,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2120,14 +2174,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2143,7 +2197,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2153,14 +2207,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2176,7 +2230,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2186,11 +2240,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>17</v>
@@ -2202,14 +2256,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2219,11 +2273,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2235,14 +2289,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2252,14 +2306,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2275,7 +2329,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2292,7 +2346,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2308,7 +2362,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2318,7 +2372,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2341,7 +2395,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2351,14 +2405,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2374,7 +2428,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2391,7 +2445,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2407,7 +2461,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2417,14 +2471,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2440,7 +2494,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2454,7 +2508,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>17</v>
@@ -2466,14 +2520,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2483,14 +2537,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2499,14 +2553,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2516,14 +2570,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2532,14 +2586,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2549,14 +2603,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2572,7 +2626,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2589,7 +2643,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2598,14 +2652,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2615,14 +2669,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2631,14 +2685,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2648,14 +2702,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2681,11 +2735,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2697,14 +2751,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2714,14 +2768,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2730,14 +2784,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2770,7 +2824,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2787,7 +2841,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2803,7 +2857,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2836,7 +2890,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2853,7 +2907,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2869,7 +2923,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2879,14 +2933,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2895,14 +2949,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2912,11 +2966,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2928,14 +2982,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2945,14 +2999,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>158</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2968,7 +3022,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2982,10 +3036,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2994,14 +3048,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3011,11 +3065,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>17</v>
@@ -3027,14 +3081,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3044,11 +3098,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>17</v>
@@ -3067,7 +3121,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3084,7 +3138,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>122</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3100,7 +3154,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3110,11 +3164,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>17</v>
@@ -3126,14 +3180,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3143,11 +3197,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>17</v>
@@ -3159,7 +3213,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3176,14 +3230,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3192,14 +3246,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3209,11 +3263,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>17</v>
@@ -3225,14 +3279,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3242,11 +3296,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>17</v>
@@ -3258,14 +3312,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3275,14 +3329,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>17</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3291,14 +3345,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3308,11 +3362,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>17</v>
@@ -3324,14 +3378,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3341,11 +3395,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>17</v>
@@ -3357,14 +3411,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3374,11 +3428,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>17</v>
@@ -3390,31 +3444,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3430,7 +3484,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3440,11 +3494,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>17</v>
@@ -3456,14 +3510,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3473,11 +3527,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>17</v>
@@ -3496,7 +3550,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3506,14 +3560,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3522,14 +3576,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3539,11 +3593,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>17</v>
@@ -3555,14 +3609,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3579,7 +3633,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3595,7 +3649,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3605,11 +3659,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3621,14 +3675,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3638,11 +3692,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>17</v>
@@ -3661,7 +3715,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3678,7 +3732,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3694,7 +3748,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3711,7 +3765,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3727,7 +3781,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3744,7 +3798,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3760,7 +3814,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3777,7 +3831,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3793,7 +3847,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3803,14 +3857,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3819,14 +3873,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3836,14 +3890,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3852,14 +3906,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3869,11 +3923,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3885,14 +3939,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3902,14 +3956,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3918,14 +3972,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3935,14 +3989,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3951,14 +4005,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3968,14 +4022,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3984,14 +4038,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4001,11 +4055,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4017,14 +4071,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4034,14 +4088,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4050,14 +4104,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4067,14 +4121,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4090,7 +4144,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4100,14 +4154,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>96</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4116,14 +4170,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4133,11 +4187,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>17</v>
@@ -4149,14 +4203,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4166,14 +4220,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>253</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4182,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4199,14 +4253,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4215,7 +4269,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4232,14 +4286,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4255,7 +4309,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4265,11 +4319,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>17</v>
@@ -4281,28 +4335,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>17</v>
@@ -4314,31 +4368,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>265</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4354,24 +4408,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q93" s="12">
         <v>268</v>
-      </c>
-      <c t="s" r="Q93" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4387,21 +4441,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>17</v>
@@ -4413,31 +4467,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4446,31 +4500,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>203</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>62</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>275</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4479,31 +4533,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4512,14 +4566,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4529,14 +4583,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>46</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>122</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4545,14 +4599,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4562,14 +4616,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>96</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>97</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>17</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4578,14 +4632,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4595,11 +4649,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>17</v>
@@ -4611,14 +4665,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4628,14 +4682,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>122</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4644,14 +4698,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4661,49 +4715,280 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>17</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5957.6049999999996</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>288</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>289</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>290</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>291</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>77</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>18</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>292</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>294</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>77</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>18</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>281</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>295</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>70</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>18</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>296</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>297</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>41</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>18</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>102</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>298</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>77</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>18</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>299</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>301</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>77</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>18</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>302</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>303</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>304</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>18</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>305</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>6442.585</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>306</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>307</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>308</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5192,10 +5477,45 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -929,7 +929,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 10:58 PM</t>
+    <t>Wednesday, 28 May, 2025 10:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -857,10 +857,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>17:0</t>
+    <t>20:0</t>
   </si>
   <si>
     <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
@@ -4620,10 +4617,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q99" s="12">
         <v>282</v>
-      </c>
-      <c t="s" r="Q99" s="12">
-        <v>283</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4632,14 +4629,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4653,7 +4650,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>17</v>
@@ -4665,7 +4662,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4698,7 +4695,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4715,11 +4712,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>128</v>
@@ -4731,7 +4728,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4748,14 +4745,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4764,7 +4761,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4797,7 +4794,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4814,7 +4811,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4830,7 +4827,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4863,7 +4860,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4880,11 +4877,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>17</v>
@@ -4896,7 +4893,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4913,7 +4910,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -4929,14 +4926,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4946,7 +4943,7 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
@@ -4958,13 +4955,13 @@
     </row>
     <row r="110" ht="24.75" customHeight="1">
       <c r="P110" s="13">
-        <v>6442.585</v>
+        <v>6451.585</v>
       </c>
       <c r="Q110" s="13"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
       <c t="s" r="A111" s="14">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -4972,13 +4969,13 @@
       <c r="E111" s="14"/>
       <c r="F111" s="14"/>
       <c t="s" r="G111" s="15">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
       <c r="J111" s="16"/>
       <c t="s" r="K111" s="17">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L111" s="17"/>
       <c r="M111" s="17"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -218,6 +218,15 @@
     <t>72.2700</t>
   </si>
   <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BILICHOL 24 CAPS</t>
   </si>
   <si>
@@ -857,7 +866,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>21:0</t>
   </si>
   <si>
     <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
@@ -926,7 +935,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 10:59 PM</t>
+    <t>Wednesday, 28 May, 2025 11:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2062,7 +2071,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2072,14 +2081,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2088,20 +2097,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2128,7 +2137,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2138,11 +2147,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>17</v>
@@ -2154,31 +2163,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2187,14 +2196,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2204,14 +2213,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2227,7 +2236,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2237,7 +2246,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2260,7 +2269,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2277,7 +2286,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2293,7 +2302,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2303,14 +2312,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2319,14 +2328,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2343,7 +2352,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2359,7 +2368,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2369,7 +2378,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2392,7 +2401,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2402,14 +2411,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2425,7 +2434,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2442,7 +2451,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2458,7 +2467,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2468,14 +2477,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2491,7 +2500,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2501,14 +2510,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2524,7 +2533,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2571,7 +2580,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>17</v>
@@ -2583,14 +2592,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2600,14 +2609,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2616,14 +2625,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2633,14 +2642,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2656,7 +2665,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2673,7 +2682,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2689,7 +2698,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2706,7 +2715,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>128</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2715,14 +2724,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2732,14 +2741,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2755,7 +2764,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2765,14 +2774,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2788,7 +2797,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2798,14 +2807,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2814,14 +2823,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2854,7 +2863,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2887,7 +2896,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2904,7 +2913,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2920,7 +2929,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2937,7 +2946,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2953,7 +2962,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2986,7 +2995,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2996,14 +3005,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>158</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3012,14 +3021,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3029,14 +3038,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>161</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3052,7 +3061,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3069,7 +3078,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3085,7 +3094,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3099,7 +3108,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>17</v>
@@ -3111,14 +3120,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3128,11 +3137,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>17</v>
@@ -3151,7 +3160,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3184,7 +3193,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3217,7 +3226,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3234,7 +3243,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>128</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3260,14 +3269,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>17</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3276,14 +3285,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3293,11 +3302,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>17</v>
@@ -3309,14 +3318,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3326,14 +3335,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>128</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3349,7 +3358,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3359,14 +3368,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>17</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3375,14 +3384,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3392,11 +3401,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>17</v>
@@ -3408,14 +3417,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3425,11 +3434,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>17</v>
@@ -3441,31 +3450,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3474,31 +3483,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3507,14 +3516,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3524,11 +3533,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>17</v>
@@ -3547,7 +3556,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3557,11 +3566,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>17</v>
@@ -3573,14 +3582,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3590,11 +3599,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>17</v>
@@ -3613,7 +3622,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3623,11 +3632,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>17</v>
@@ -3639,14 +3648,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3679,7 +3688,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3689,11 +3698,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>17</v>
@@ -3705,14 +3714,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3722,14 +3731,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3745,7 +3754,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3762,7 +3771,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3778,7 +3787,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3795,7 +3804,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3811,7 +3820,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3828,7 +3837,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3844,7 +3853,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3854,14 +3863,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3870,14 +3879,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3887,11 +3896,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>17</v>
@@ -3910,7 +3919,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3927,7 +3936,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3943,7 +3952,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3960,7 +3969,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3976,7 +3985,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3986,14 +3995,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>86</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4002,14 +4011,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4019,14 +4028,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4042,7 +4051,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4059,7 +4068,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4075,7 +4084,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4141,7 +4150,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4151,11 +4160,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4167,14 +4176,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4184,14 +4193,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>99</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4207,7 +4216,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4240,7 +4249,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4257,7 +4266,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4273,7 +4282,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4290,7 +4299,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4306,7 +4315,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4316,11 +4325,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>17</v>
@@ -4332,14 +4341,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4349,11 +4358,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>17</v>
@@ -4372,7 +4381,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4405,7 +4414,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4415,14 +4424,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>268</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4438,7 +4447,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4448,14 +4457,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q94" s="12">
         <v>271</v>
-      </c>
-      <c t="s" r="Q94" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4471,7 +4480,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4488,7 +4497,7 @@
         <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4504,7 +4513,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4514,11 +4523,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4530,7 +4539,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4547,14 +4556,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4563,28 +4572,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>17</v>
@@ -4596,14 +4605,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4613,14 +4622,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>46</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>47</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>282</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4636,7 +4645,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4646,14 +4655,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q100" s="12">
         <v>285</v>
-      </c>
-      <c t="s" r="Q100" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4669,7 +4678,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4679,11 +4688,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>17</v>
@@ -4695,14 +4704,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4712,14 +4721,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>128</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4735,7 +4744,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4749,10 +4758,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>65</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>292</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4768,7 +4777,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4778,14 +4787,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>70</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4794,14 +4803,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4811,14 +4820,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>128</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4827,14 +4836,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4844,14 +4853,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>102</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>17</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4860,14 +4869,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4877,11 +4886,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>105</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>17</v>
@@ -4900,7 +4909,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4914,10 +4923,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>128</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4926,14 +4935,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4947,45 +4956,78 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>17</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>6451.585</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>305</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
         <v>306</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>18</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
         <v>307</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>6481.3149999999996</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>308</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>309</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>310</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5509,10 +5551,15 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -935,7 +935,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 11:02 PM</t>
+    <t>Wednesday, 28 May, 2025 11:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -410,10 +410,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>15.8400</t>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>63.8400</t>
   </si>
   <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
@@ -935,7 +935,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 11:03 PM</t>
+    <t>Wednesday, 28 May, 2025 11:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2781,7 +2781,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -4997,7 +4997,7 @@
     </row>
     <row r="111" ht="25.5" customHeight="1">
       <c r="P111" s="13">
-        <v>6481.3149999999996</v>
+        <v>6529.3149999999996</v>
       </c>
       <c r="Q111" s="13"/>
     </row>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -548,6 +548,12 @@
     <t>73.0000</t>
   </si>
   <si>
+    <t>HERBANA 30CAPS</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
   </si>
   <si>
@@ -581,9 +587,6 @@
     <t>METHYL FOLATE 1000 MCG 90 TABS.(ILLEGAL IMPORT)</t>
   </si>
   <si>
-    <t>120.0000</t>
-  </si>
-  <si>
     <t>MOBITIL 15MG 6 SUPP.</t>
   </si>
   <si>
@@ -635,6 +638,15 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>OMEPURE ORAL DPS 10 ML</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE LIQUID 120 ML</t>
   </si>
   <si>
@@ -935,7 +947,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 11:05 PM</t>
+    <t>Wednesday, 28 May, 2025 11:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3259,24 +3271,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>131</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3285,7 +3297,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3302,14 +3314,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>17</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3325,7 +3337,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3335,11 +3347,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>17</v>
@@ -3351,14 +3363,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3368,14 +3380,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>131</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3384,14 +3396,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3401,14 +3413,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3417,7 +3429,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3434,11 +3446,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>17</v>
@@ -3457,7 +3469,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3467,11 +3479,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>17</v>
@@ -3483,31 +3495,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3516,31 +3528,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3556,7 +3568,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3566,11 +3578,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>17</v>
@@ -3582,14 +3594,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3599,11 +3611,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>17</v>
@@ -3615,14 +3627,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3632,11 +3644,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>17</v>
@@ -3648,14 +3660,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3665,11 +3677,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3681,14 +3693,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3698,11 +3710,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>17</v>
@@ -3714,14 +3726,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3731,11 +3743,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>17</v>
@@ -3754,7 +3766,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3771,7 +3783,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3787,7 +3799,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3797,14 +3809,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3813,14 +3825,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3830,14 +3842,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3846,14 +3858,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3863,11 +3875,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3879,7 +3891,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3896,11 +3908,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>17</v>
@@ -3919,7 +3931,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3936,7 +3948,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3952,7 +3964,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3962,14 +3974,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>27</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3978,14 +3990,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3995,11 +4007,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>17</v>
@@ -4011,14 +4023,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4028,11 +4040,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4044,7 +4056,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4061,14 +4073,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4077,7 +4089,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4094,11 +4106,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4110,7 +4122,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4127,14 +4139,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4143,14 +4155,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4160,11 +4172,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4176,14 +4188,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4193,11 +4205,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4209,7 +4221,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4226,14 +4238,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4242,14 +4254,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4259,14 +4271,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>99</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4275,14 +4287,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4292,14 +4304,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4308,14 +4320,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4325,11 +4337,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>17</v>
@@ -4341,14 +4353,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4358,14 +4370,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4381,7 +4393,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4414,7 +4426,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4424,11 +4436,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>17</v>
@@ -4440,14 +4452,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4457,14 +4469,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>271</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4473,7 +4485,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4490,11 +4502,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>17</v>
@@ -4506,14 +4518,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4523,14 +4535,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4539,14 +4551,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4556,14 +4568,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4572,14 +4584,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4589,14 +4601,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4612,24 +4624,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>47</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4638,31 +4650,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>285</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4678,7 +4690,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>287</v>
+        <v>95</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4688,11 +4700,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>17</v>
@@ -4704,14 +4716,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4721,14 +4733,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>17</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4744,7 +4756,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4754,14 +4766,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>131</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4777,7 +4789,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4787,14 +4799,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>65</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>295</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4803,7 +4815,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4820,14 +4832,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>93</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>73</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4843,7 +4855,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4860,7 +4872,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>131</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4869,14 +4881,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4886,14 +4898,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>105</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4902,14 +4914,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4919,14 +4931,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>17</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4942,7 +4954,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4952,14 +4964,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>105</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>268</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>131</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4968,14 +4980,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4985,49 +4997,115 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>6529.3149999999996</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>307</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>80</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>18</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
         <v>308</v>
       </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>309</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
         <v>310</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>18</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>311</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6708.3149999999996</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>312</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>313</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>314</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5556,10 +5634,20 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -248,12 +248,24 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>BLINCOREST PLUS 125/500MG 30 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>30.50</t>
   </si>
   <si>
@@ -263,9 +275,6 @@
     <t>CAPOZIDE 50/25MG 30 TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>CEFAZONE 1 GM VIAL</t>
   </si>
   <si>
@@ -278,9 +287,6 @@
     <t>CEREBROFORTE 800MG 30 F.C. TAB.</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
     <t>66.0000</t>
   </si>
   <si>
@@ -305,6 +311,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>COLOSPASMIN FORTE 135MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
@@ -497,6 +512,15 @@
     <t>0:6</t>
   </si>
   <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
     <t>FLEXILAX 30 F.C.TAB</t>
   </si>
   <si>
@@ -581,6 +605,15 @@
     <t>480.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LOPRO IRON ADULT  14 SACHETS</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>MACRO PANTHENOL CREAM 50 GM</t>
   </si>
   <si>
@@ -725,6 +758,12 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>SERPASS 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>SILDEN 100 MG 8F.C. TABS</t>
   </si>
   <si>
@@ -815,12 +854,6 @@
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
     <t>VITACID C 500MG 12 EFF. GRAN. IN SACHETS</t>
   </si>
   <si>
@@ -947,7 +980,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 11:07 PM</t>
+    <t>Wednesday, 28 May, 2025 11:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2188,7 +2221,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2199,7 +2232,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2208,31 +2241,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2241,14 +2274,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2258,14 +2291,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2281,7 +2314,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2291,7 +2324,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2314,7 +2347,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2324,14 +2357,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2340,14 +2373,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2357,14 +2390,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2373,14 +2406,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2390,14 +2423,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2406,14 +2439,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2423,14 +2456,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2439,14 +2472,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2456,14 +2489,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2472,14 +2505,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2489,11 +2522,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2505,14 +2538,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2522,14 +2555,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2538,14 +2571,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2555,14 +2588,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2571,14 +2604,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2588,14 +2621,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2604,14 +2637,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2621,11 +2654,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>17</v>
@@ -2644,7 +2677,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2654,14 +2687,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2670,14 +2703,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2687,14 +2720,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2703,14 +2736,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2720,14 +2753,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2736,14 +2769,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2753,14 +2786,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2769,14 +2802,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2786,14 +2819,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2802,14 +2835,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2819,14 +2852,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>17</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2835,14 +2868,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2852,14 +2885,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2868,7 +2901,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2885,14 +2918,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2901,14 +2934,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2918,11 +2951,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2934,7 +2967,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2951,14 +2984,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2967,14 +3000,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2984,11 +3017,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3000,14 +3033,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3017,14 +3050,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3033,14 +3066,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3050,14 +3083,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>161</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3066,14 +3099,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3083,11 +3116,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3099,14 +3132,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3116,14 +3149,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>17</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3132,14 +3165,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3149,11 +3182,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>17</v>
@@ -3172,7 +3205,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3189,7 +3222,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3205,7 +3238,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3238,7 +3271,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3252,7 +3285,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>17</v>
@@ -3264,24 +3297,24 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3304,7 +3337,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3321,7 +3354,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>131</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3337,7 +3370,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3347,11 +3380,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>17</v>
@@ -3363,28 +3396,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>17</v>
@@ -3396,7 +3429,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3413,14 +3446,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3429,14 +3462,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3446,11 +3479,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>17</v>
@@ -3462,7 +3495,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3479,11 +3512,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>17</v>
@@ -3495,14 +3528,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3512,14 +3545,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>17</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3528,31 +3561,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3561,14 +3594,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3578,11 +3611,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>17</v>
@@ -3594,14 +3627,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3611,11 +3644,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>17</v>
@@ -3627,14 +3660,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3644,11 +3677,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>17</v>
@@ -3660,31 +3693,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3693,14 +3726,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3710,11 +3743,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>17</v>
@@ -3726,14 +3759,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3743,11 +3776,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>17</v>
@@ -3759,14 +3792,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3776,11 +3809,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>17</v>
@@ -3792,14 +3825,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3809,11 +3842,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>17</v>
@@ -3832,7 +3865,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3842,14 +3875,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3858,14 +3891,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3875,14 +3908,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3891,14 +3924,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3908,11 +3941,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>17</v>
@@ -3924,14 +3957,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3941,14 +3974,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3957,14 +3990,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3974,14 +4007,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>28</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3990,14 +4023,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4007,14 +4040,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4023,14 +4056,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4040,14 +4073,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4056,14 +4089,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4073,14 +4106,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4089,14 +4122,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4106,14 +4139,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4129,7 +4162,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4146,7 +4179,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4162,7 +4195,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4212,7 +4245,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4228,7 +4261,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4238,14 +4271,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4254,14 +4287,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4271,11 +4304,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4287,7 +4320,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4304,14 +4337,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4320,14 +4353,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4337,14 +4370,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4353,14 +4386,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4370,11 +4403,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4386,14 +4419,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4403,14 +4436,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4419,14 +4452,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4436,14 +4469,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4459,7 +4492,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4492,7 +4525,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4525,7 +4558,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4535,14 +4568,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>275</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4558,7 +4591,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4601,14 +4634,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4617,14 +4650,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4634,14 +4667,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4650,14 +4683,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4667,11 +4700,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>17</v>
@@ -4683,31 +4716,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>17</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4729,7 +4762,7 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4737,10 +4770,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>289</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4756,24 +4789,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4789,24 +4822,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>237</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4815,31 +4848,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>131</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4855,7 +4888,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4865,14 +4898,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>46</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>299</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4881,7 +4914,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4898,14 +4931,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>73</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4921,7 +4954,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4931,14 +4964,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>131</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4947,7 +4980,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4964,11 +4997,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>105</v>
+        <v>247</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>106</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>17</v>
@@ -4980,7 +5013,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -4997,14 +5030,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>17</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5013,7 +5046,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5030,14 +5063,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>272</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>131</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5046,14 +5079,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5063,49 +5096,214 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>251</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6708.3149999999996</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>312</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>73</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>18</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
         <v>313</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>314</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>41</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>18</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>110</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>315</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>80</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>18</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>316</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>318</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>80</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>18</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>319</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>320</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>321</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>18</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>322</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>7239.875</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>323</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>324</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>325</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5644,10 +5842,35 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -980,7 +980,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 11:14 PM</t>
+    <t>Wednesday, 28 May, 2025 11:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -539,6 +539,15 @@
     <t>45.5000</t>
   </si>
   <si>
+    <t>FLUMOX 1000MG 15 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>60.7200</t>
+  </si>
+  <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
@@ -695,9 +704,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>115.0000</t>
   </si>
   <si>
@@ -980,7 +986,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 11:15 PM</t>
+    <t>Wednesday, 28 May, 2025 11:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3271,7 +3277,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3285,10 +3291,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3297,14 +3303,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3314,11 +3320,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>17</v>
@@ -3337,7 +3343,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3370,7 +3376,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3403,21 +3409,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>17</v>
@@ -3429,31 +3435,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>136</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3479,14 +3485,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>17</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3495,14 +3501,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3512,11 +3518,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>17</v>
@@ -3528,14 +3534,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3545,14 +3551,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>136</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3568,7 +3574,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3585,7 +3591,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>17</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3611,11 +3617,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>17</v>
@@ -3627,7 +3633,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3644,11 +3650,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>17</v>
@@ -3660,14 +3666,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3677,11 +3683,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>17</v>
@@ -3693,31 +3699,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3726,31 +3732,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3759,14 +3765,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3776,11 +3782,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>17</v>
@@ -3799,7 +3805,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3809,11 +3815,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>17</v>
@@ -3825,14 +3831,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3842,11 +3848,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>17</v>
@@ -3865,7 +3871,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3875,11 +3881,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>17</v>
@@ -3891,14 +3897,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3964,7 +3970,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3974,11 +3980,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>17</v>
@@ -3990,14 +3996,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4007,14 +4013,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4030,7 +4036,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4040,14 +4046,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4056,14 +4062,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4073,14 +4079,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4089,14 +4095,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4106,14 +4112,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4122,14 +4128,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4139,14 +4145,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4155,14 +4161,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4172,11 +4178,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>17</v>
@@ -4188,14 +4194,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4205,14 +4211,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4221,14 +4227,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4238,14 +4244,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4254,14 +4260,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4271,7 +4277,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4294,7 +4300,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4304,14 +4310,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4327,7 +4333,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4337,14 +4343,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4353,14 +4359,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4370,14 +4376,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4386,14 +4392,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4403,11 +4409,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4419,7 +4425,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4436,11 +4442,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4452,14 +4458,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4469,7 +4475,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4492,7 +4498,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4502,14 +4508,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>104</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4518,14 +4524,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4535,11 +4541,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>17</v>
@@ -4551,14 +4557,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4568,14 +4574,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4584,14 +4590,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4601,14 +4607,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4617,14 +4623,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4634,11 +4640,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>215</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>17</v>
@@ -4650,14 +4656,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4667,11 +4673,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>17</v>
@@ -4683,14 +4689,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4700,11 +4706,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>202</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>17</v>
@@ -4716,14 +4722,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4733,14 +4739,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>286</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4749,14 +4755,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4766,14 +4772,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>17</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4782,14 +4788,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4799,14 +4805,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4815,14 +4821,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4832,7 +4838,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4865,14 +4871,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4888,21 +4894,21 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>47</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>17</v>
@@ -4914,14 +4920,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4931,14 +4937,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>46</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>255</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>300</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4947,14 +4953,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4964,14 +4970,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>17</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4980,14 +4986,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4997,11 +5003,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>17</v>
@@ -5013,14 +5019,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5030,14 +5036,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>136</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5046,7 +5052,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5063,14 +5069,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>65</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>310</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5079,7 +5085,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5096,14 +5102,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>73</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5112,14 +5118,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5129,14 +5135,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>136</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5152,7 +5158,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5162,14 +5168,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>110</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>17</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5178,14 +5184,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5195,11 +5201,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>110</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>17</v>
@@ -5211,7 +5217,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5228,14 +5234,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>136</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5251,7 +5257,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5261,49 +5267,82 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>17</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>7239.875</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>322</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
         <v>323</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>18</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
         <v>324</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>7300.5950000000003</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
         <v>325</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>326</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>327</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5867,10 +5906,15 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -344,622 +344,625 @@
     <t>50.00</t>
   </si>
   <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEXAFLOX EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DEXAGLOBE 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DIACEREIN 50MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>164.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 20/1680MG PD. FOR ORAL SUSP. 7 SACHETS</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>4.9000</t>
+  </si>
+  <si>
+    <t>ECOTO 20 PIECES</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
+    <t>EMPACOZA PLUS 10/5MG 30 F.C TABS</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>117.8100</t>
+  </si>
+  <si>
+    <t>EPISOPT EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>4:8</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>70.5600</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>FLUCA EYE SUSP. DROP 5 ML</t>
+  </si>
+  <si>
+    <t>45.50</t>
+  </si>
+  <si>
+    <t>45.5000</t>
+  </si>
+  <si>
+    <t>FLUMOX 1000MG 15 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>60.7200</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>FROST GEL 100 GM</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>HEALSEC 40MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>HERBANA 30CAPS</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>244.0000</t>
+  </si>
+  <si>
+    <t>LASIX 20MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LEVOFLOXACIN 750 MG 5 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPRO IRON ADULT  14 SACHETS</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>MACRO PANTHENOL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>METHYL FOLATE 1000 MCG 90 TABS.(ILLEGAL IMPORT)</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 6 SUPP.</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>OMEPURE ORAL DPS 10 ML</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>PRIVACOND EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>PROSTRIDE 5MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>183.00</t>
+  </si>
+  <si>
+    <t>60.3900</t>
+  </si>
+  <si>
+    <t>REPAION-N GEL 50 GM</t>
+  </si>
+  <si>
+    <t>ROYAL JELLY 1000MG 12 CAPS</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>37.9200</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>SERPASS 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 100 MG 8F.C. TABS</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TEBONINA FORTE 40MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>TOBRADEX EYE OINT. 3.5 GM</t>
+  </si>
+  <si>
+    <t>42.50</t>
+  </si>
+  <si>
+    <t>42.5000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>TRILEPTAL 300MG 50 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>356.00</t>
+  </si>
+  <si>
+    <t>71.2000</t>
+  </si>
+  <si>
+    <t>ULCEZOLE 60MG 20 DEL. REL. CAPSULES</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>VITACID C 500MG 12 EFF. GRAN. IN SACHETS</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
+  </si>
+  <si>
+    <t>-59.4000</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 50 GM</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>WINZOXIB 90MG 20 TAB</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
     <t>50.0000</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEXAFLOX EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>DEXAGLOBE 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DIACEREIN 50MG 30 CAP.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>DICETEL 100MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>164.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 20/1680MG PD. FOR ORAL SUSP. 7 SACHETS</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>4.9000</t>
-  </si>
-  <si>
-    <t>ECOTO 20 PIECES</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>62.5000</t>
-  </si>
-  <si>
-    <t>EMPACOZA PLUS 10/5MG 30 F.C TABS</t>
-  </si>
-  <si>
-    <t>357.00</t>
-  </si>
-  <si>
-    <t>117.8100</t>
-  </si>
-  <si>
-    <t>EPISOPT EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>4:8</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>70.5600</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>FLEXILAX 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>FLUCA EYE SUSP. DROP 5 ML</t>
-  </si>
-  <si>
-    <t>45.50</t>
-  </si>
-  <si>
-    <t>45.5000</t>
-  </si>
-  <si>
-    <t>FLUMOX 1000MG 15 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>60.7200</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>FROST GEL 100 GM</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>HEALSEC 40MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
-    <t>HERBANA 30CAPS</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>244.0000</t>
-  </si>
-  <si>
-    <t>LASIX 20MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LEVOFLOXACIN 750 MG 5 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>480.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPRO IRON ADULT  14 SACHETS</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>MACRO PANTHENOL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>METHYL FOLATE 1000 MCG 90 TABS.(ILLEGAL IMPORT)</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 6 SUPP.</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>OMEPURE ORAL DPS 10 ML</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>115.0000</t>
-  </si>
-  <si>
-    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>PRIVACOND EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>PROSTRIDE 5MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>183.00</t>
-  </si>
-  <si>
-    <t>60.3900</t>
-  </si>
-  <si>
-    <t>REPAION-N GEL 50 GM</t>
-  </si>
-  <si>
-    <t>ROYAL JELLY 1000MG 12 CAPS</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 250/50MCG 60 PD. INH. CAPS.+ INH. DEVICE</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>37.9200</t>
-  </si>
-  <si>
-    <t>SANSOVIT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>SERPASS 50MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 100 MG 8F.C. TABS</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>TEBONINA FORTE 40MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>TELFAST 120MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>TOBRADEX EYE OINT. 3.5 GM</t>
-  </si>
-  <si>
-    <t>42.50</t>
-  </si>
-  <si>
-    <t>42.5000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>TRILEPTAL 300MG 50 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>356.00</t>
-  </si>
-  <si>
-    <t>71.2000</t>
-  </si>
-  <si>
-    <t>ULCEZOLE 60MG 20 DEL. REL. CAPSULES</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>198.0000</t>
-  </si>
-  <si>
-    <t>URINEX 24 CAPS</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>VITACID C 500MG 12 EFF. GRAN. IN SACHETS</t>
-  </si>
-  <si>
-    <t>16.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
-  </si>
-  <si>
-    <t>-59.4000</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 50 GM</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>WINZOXIB 90MG 20 TAB</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>ZADOGLOBIN 20 CAPS</t>
-  </si>
-  <si>
-    <t>67.5000</t>
-  </si>
-  <si>
-    <t>ZINCTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>ايفا كريم 170 جم</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>سائل ريد</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>شمع حريمي</t>
   </si>
   <si>
     <t>ماسك صنفره هاي لايف</t>
@@ -2568,7 +2571,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -5205,7 +5208,7 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>111</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>17</v>
@@ -5217,7 +5220,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5234,11 +5237,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>17</v>
@@ -5250,7 +5253,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5267,7 +5270,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5283,14 +5286,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5300,7 +5303,7 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
@@ -5312,13 +5315,13 @@
     </row>
     <row r="119" ht="25.5" customHeight="1">
       <c r="P119" s="13">
-        <v>7300.5950000000003</v>
+        <v>7325.5950000000003</v>
       </c>
       <c r="Q119" s="13"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
       <c t="s" r="A120" s="14">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -5326,13 +5329,13 @@
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
       <c t="s" r="G120" s="15">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
       <c r="J120" s="16"/>
       <c t="s" r="K120" s="17">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L120" s="17"/>
       <c r="M120" s="17"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -272,6 +272,15 @@
     <t>30.5000</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CAPOZIDE 50/25MG 30 TAB.</t>
   </si>
   <si>
@@ -323,12 +332,6 @@
     <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -422,6 +425,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>DIOSMIN PLUS 500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -545,7 +557,7 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>60.7200</t>
+    <t>91.0800</t>
   </si>
   <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
@@ -989,7 +1001,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 11:16 PM</t>
+    <t>Wednesday, 28 May, 2025 11:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2290,7 +2302,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2300,11 +2312,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2316,14 +2328,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2333,14 +2345,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2356,7 +2368,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2366,11 +2378,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>17</v>
@@ -2382,14 +2394,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2399,14 +2411,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2422,7 +2434,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2432,14 +2444,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2448,14 +2460,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2488,7 +2500,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2505,7 +2517,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2521,7 +2533,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2531,11 +2543,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2547,14 +2559,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2564,14 +2576,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2580,14 +2592,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2597,14 +2609,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2613,14 +2625,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2630,14 +2642,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2646,14 +2658,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2663,14 +2675,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2679,14 +2691,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2696,11 +2708,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>17</v>
@@ -2712,7 +2724,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2729,11 +2741,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>17</v>
@@ -2745,14 +2757,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2762,14 +2774,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2785,7 +2797,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2795,14 +2807,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2811,14 +2823,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2828,14 +2840,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2844,14 +2856,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2861,14 +2873,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>136</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2877,14 +2889,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2894,14 +2906,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2910,7 +2922,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2927,11 +2939,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>17</v>
@@ -2943,14 +2955,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2960,14 +2972,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2976,7 +2988,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2993,14 +3005,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3009,14 +3021,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3026,11 +3038,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3042,7 +3054,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3059,14 +3071,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3075,14 +3087,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3092,11 +3104,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3108,14 +3120,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3125,14 +3137,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3141,14 +3153,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3158,14 +3170,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>166</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3174,14 +3186,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3191,14 +3203,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3207,14 +3219,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3224,14 +3236,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3240,14 +3252,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3257,11 +3269,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>17</v>
@@ -3273,14 +3285,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3290,14 +3302,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3306,14 +3318,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3323,11 +3335,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>17</v>
@@ -3339,7 +3351,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3356,14 +3368,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3372,14 +3384,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3389,11 +3401,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>17</v>
@@ -3405,7 +3417,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3422,11 +3434,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>17</v>
@@ -3438,28 +3450,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>17</v>
@@ -3471,14 +3483,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3488,14 +3500,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>136</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3504,28 +3516,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>17</v>
@@ -3537,14 +3549,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3554,14 +3566,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>17</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3570,7 +3582,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3587,14 +3599,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>136</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3620,11 +3632,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>17</v>
@@ -3636,14 +3648,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3653,14 +3665,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>17</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3686,11 +3698,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>17</v>
@@ -3702,14 +3714,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3719,11 +3731,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3735,31 +3747,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3775,7 +3787,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3785,11 +3797,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>17</v>
@@ -3801,31 +3813,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3841,7 +3853,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3851,7 +3863,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3867,14 +3879,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3884,11 +3896,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>17</v>
@@ -3900,14 +3912,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3917,11 +3929,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>17</v>
@@ -3933,7 +3945,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3950,11 +3962,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>17</v>
@@ -3966,14 +3978,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3983,11 +3995,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>17</v>
@@ -3999,14 +4011,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4016,11 +4028,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>17</v>
@@ -4039,7 +4051,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4049,14 +4061,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4065,14 +4077,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4082,14 +4094,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4098,14 +4110,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4115,14 +4127,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4131,14 +4143,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4148,11 +4160,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4164,7 +4176,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4181,11 +4193,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>28</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>17</v>
@@ -4204,7 +4216,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4221,7 +4233,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4237,7 +4249,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4247,14 +4259,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4263,14 +4275,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4280,11 +4292,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>17</v>
@@ -4296,7 +4308,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4313,14 +4325,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4329,14 +4341,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4346,14 +4358,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4369,7 +4381,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4379,14 +4391,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>97</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4395,7 +4407,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4412,11 +4424,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4428,7 +4440,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4445,14 +4457,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4461,14 +4473,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4478,11 +4490,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4494,14 +4506,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4511,11 +4523,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4527,7 +4539,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4544,14 +4556,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4560,14 +4572,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4577,14 +4589,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>88</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4593,14 +4605,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4610,14 +4622,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4626,14 +4638,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4643,11 +4655,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>17</v>
@@ -4659,14 +4671,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4676,14 +4688,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4699,7 +4711,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4709,11 +4721,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>17</v>
@@ -4725,14 +4737,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4742,11 +4754,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>17</v>
@@ -4765,7 +4777,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4775,14 +4787,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>288</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4791,7 +4803,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4808,11 +4820,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>17</v>
@@ -4824,14 +4836,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4841,14 +4853,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4857,14 +4869,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4874,14 +4886,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4890,14 +4902,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4907,14 +4919,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4930,24 +4942,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>47</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4956,31 +4968,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>302</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4996,7 +5008,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>304</v>
+        <v>100</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5006,11 +5018,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>17</v>
@@ -5022,14 +5034,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5039,14 +5051,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>17</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5062,7 +5074,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5072,14 +5084,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>136</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5095,7 +5107,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5105,14 +5117,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>65</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>312</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5121,7 +5133,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5138,14 +5150,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>95</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>73</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5161,7 +5173,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5178,7 +5190,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>136</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5187,14 +5199,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5204,14 +5216,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5227,7 +5239,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5241,10 +5253,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>17</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5253,14 +5265,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5270,14 +5282,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>111</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>136</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5286,14 +5298,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5303,49 +5315,115 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>7325.5950000000003</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>325</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>80</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>18</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
         <v>326</v>
       </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>327</v>
       </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
         <v>328</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>18</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>329</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>7499.625</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>330</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>331</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>332</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5914,10 +5992,20 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -248,6 +248,18 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>BLINCOREST PLUS 125/500MG 30 CHEW. TABS.</t>
   </si>
   <si>
@@ -317,9 +329,6 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>COLOSPASMIN FORTE 135MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -1001,7 +1010,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 11:18 PM</t>
+    <t>Wednesday, 28 May, 2025 11:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2253,7 +2262,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2262,20 +2271,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2286,7 +2295,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2295,31 +2304,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2328,14 +2337,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2345,11 +2354,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2361,14 +2370,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2378,14 +2387,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2394,14 +2403,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2411,11 +2420,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -2427,14 +2436,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2444,14 +2453,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2484,7 +2493,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2500,7 +2509,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2510,11 +2519,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>17</v>
@@ -2533,7 +2542,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2543,14 +2552,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2559,14 +2568,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2576,11 +2585,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2599,7 +2608,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2609,14 +2618,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2632,7 +2641,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2649,7 +2658,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2665,7 +2674,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2675,14 +2684,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2698,7 +2707,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2708,14 +2717,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2731,7 +2740,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2778,7 +2787,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>17</v>
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2840,14 +2849,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2863,7 +2872,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2880,7 +2889,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2896,7 +2905,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2913,7 +2922,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2922,14 +2931,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2939,14 +2948,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>140</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2962,7 +2971,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2972,14 +2981,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2995,7 +3004,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3005,14 +3014,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3028,7 +3037,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3038,14 +3047,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3054,14 +3063,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3094,7 +3103,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3127,7 +3136,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3144,7 +3153,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3160,7 +3169,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3177,7 +3186,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3193,7 +3202,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3226,7 +3235,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3236,14 +3245,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>170</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3252,14 +3261,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3269,14 +3278,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>173</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3292,7 +3301,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3309,7 +3318,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3325,7 +3334,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3342,7 +3351,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3358,7 +3367,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3375,7 +3384,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3391,7 +3400,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3405,10 +3414,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3417,14 +3426,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3434,11 +3443,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>17</v>
@@ -3457,7 +3466,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3490,7 +3499,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3523,21 +3532,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>17</v>
@@ -3549,31 +3558,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3599,14 +3608,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>17</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3632,11 +3641,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>17</v>
@@ -3648,14 +3657,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3665,14 +3674,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3688,7 +3697,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3705,7 +3714,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>17</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3721,7 +3730,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3731,11 +3740,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3764,11 +3773,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>195</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>17</v>
@@ -3780,14 +3789,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3797,11 +3806,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>17</v>
@@ -3813,31 +3822,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3846,31 +3855,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3879,14 +3888,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3896,11 +3905,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>17</v>
@@ -3919,7 +3928,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3929,11 +3938,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>17</v>
@@ -3945,14 +3954,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3962,11 +3971,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>17</v>
@@ -3985,7 +3994,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3995,11 +4004,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>17</v>
@@ -4011,14 +4020,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4051,7 +4060,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4084,7 +4093,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4094,11 +4103,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>17</v>
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4127,14 +4136,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4143,14 +4152,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4160,14 +4169,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4183,7 +4192,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4200,7 +4209,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4216,7 +4225,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4233,7 +4242,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4249,7 +4258,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4259,14 +4268,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4275,14 +4284,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4292,11 +4301,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>17</v>
@@ -4315,7 +4324,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4332,7 +4341,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4348,7 +4357,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4365,7 +4374,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4381,7 +4390,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4391,11 +4400,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>17</v>
@@ -4407,14 +4416,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4424,14 +4433,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4440,14 +4449,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4457,14 +4466,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>85</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4480,7 +4489,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4497,7 +4506,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4513,7 +4522,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4579,7 +4588,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4589,11 +4598,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>88</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4605,14 +4614,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4622,14 +4631,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>92</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4645,7 +4654,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4678,7 +4687,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4695,7 +4704,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4711,7 +4720,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4728,7 +4737,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4744,7 +4753,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4754,11 +4763,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>17</v>
@@ -4770,14 +4779,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4787,11 +4796,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>17</v>
@@ -4803,14 +4812,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4820,11 +4829,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>17</v>
@@ -4843,7 +4852,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4853,14 +4862,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>292</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4876,7 +4885,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4886,14 +4895,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>295</v>
-      </c>
-      <c t="s" r="Q105" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4909,7 +4918,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4926,7 +4935,7 @@
         <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4942,7 +4951,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4952,11 +4961,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4968,7 +4977,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4985,14 +4994,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5001,28 +5010,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>47</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>17</v>
@@ -5034,14 +5043,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5051,14 +5060,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>46</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>261</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>306</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5074,7 +5083,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>308</v>
+        <v>84</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5084,14 +5093,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q111" s="12">
         <v>309</v>
-      </c>
-      <c t="s" r="Q111" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5107,7 +5116,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5117,11 +5126,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>17</v>
@@ -5133,14 +5142,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5150,14 +5159,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5173,7 +5182,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5187,10 +5196,10 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>65</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>316</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5206,7 +5215,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5216,14 +5225,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>73</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5232,14 +5241,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5249,14 +5258,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>137</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5265,14 +5274,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5282,14 +5291,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>111</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>17</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5298,14 +5307,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5315,7 +5324,7 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>114</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
@@ -5338,7 +5347,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5352,10 +5361,10 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5364,14 +5373,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>84</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5385,45 +5394,78 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>17</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>7499.625</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
         <v>330</v>
       </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
         <v>331</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>18</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
         <v>332</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>7526.625</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>333</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>334</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>335</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6002,10 +6044,15 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -938,7 +938,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>21:0</t>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
   </si>
   <si>
     <t xml:space="preserve">حنه جلوري  بني 1 كيس </t>
@@ -5097,10 +5100,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5109,14 +5112,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5130,7 +5133,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>17</v>
@@ -5142,7 +5145,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5175,7 +5178,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5192,11 +5195,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>140</v>
@@ -5208,7 +5211,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5225,14 +5228,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5241,7 +5244,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5274,7 +5277,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5291,7 +5294,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5307,7 +5310,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5328,7 +5331,7 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>17</v>
@@ -5340,7 +5343,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5357,11 +5360,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>17</v>
@@ -5373,7 +5376,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5390,7 +5393,7 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
@@ -5406,14 +5409,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5423,7 +5426,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5435,13 +5438,13 @@
     </row>
     <row r="122" ht="25.5" customHeight="1">
       <c r="P122" s="13">
-        <v>7526.625</v>
+        <v>7532.625</v>
       </c>
       <c r="Q122" s="13"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
       <c t="s" r="A123" s="14">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -5449,13 +5452,13 @@
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
       <c t="s" r="G123" s="15">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
       <c r="J123" s="16"/>
       <c t="s" r="K123" s="17">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L123" s="17"/>
       <c r="M123" s="17"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -1013,7 +1013,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 11:19 PM</t>
+    <t>Wednesday, 28 May, 2025 11:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -209,6 +209,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>BE-READY CREAM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>BETASERC 16MG 60 TAB</t>
   </si>
   <si>
@@ -263,9 +275,6 @@
     <t>BLINCOREST PLUS 125/500MG 30 CHEW. TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
@@ -386,6 +395,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DEXAFLOX EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -575,6 +593,15 @@
     <t>20.00</t>
   </si>
   <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
     <t>FROST GEL 100 GM</t>
   </si>
   <si>
@@ -704,21 +731,12 @@
     <t>OMEPURE ORAL DPS 10 ML</t>
   </si>
   <si>
-    <t>59.00</t>
-  </si>
-  <si>
     <t>59.0000</t>
   </si>
   <si>
     <t>OSTEOCARE LIQUID 120 ML</t>
   </si>
   <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -728,6 +746,9 @@
     <t>115.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -806,6 +827,12 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>STATURIC 40MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -1013,7 +1040,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 11:20 PM</t>
+    <t>Wednesday, 28 May, 2025 11:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2116,24 +2143,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2142,7 +2169,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2159,11 +2186,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2175,14 +2202,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2199,7 +2226,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2215,21 +2242,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>17</v>
@@ -2241,20 +2268,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2265,7 +2292,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2298,7 +2325,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2307,31 +2334,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2347,13 +2374,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2364,7 +2391,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2380,7 +2407,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2390,11 +2417,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2406,14 +2433,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2423,14 +2450,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2446,7 +2473,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2456,11 +2483,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -2472,14 +2499,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2489,14 +2516,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2512,7 +2539,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2522,14 +2549,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2545,7 +2572,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2555,11 +2582,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>17</v>
@@ -2578,7 +2605,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2588,14 +2615,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2604,14 +2631,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2621,11 +2648,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2644,7 +2671,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2654,14 +2681,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2677,7 +2704,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2694,7 +2721,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2710,7 +2737,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2720,14 +2747,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2743,7 +2770,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2753,14 +2780,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2776,7 +2803,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2823,7 +2850,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>17</v>
@@ -2835,14 +2862,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2852,14 +2879,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2868,14 +2895,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2885,14 +2912,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2901,14 +2928,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2918,14 +2945,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2941,7 +2968,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2958,7 +2985,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2967,14 +2994,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2984,11 +3011,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>17</v>
@@ -3000,14 +3027,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3017,14 +3044,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>146</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3040,7 +3067,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3083,14 +3110,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3099,14 +3126,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3116,14 +3143,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3132,14 +3159,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3172,7 +3199,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3189,7 +3216,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3205,7 +3232,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3238,7 +3265,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3255,7 +3282,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3271,7 +3298,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3281,14 +3308,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3297,14 +3324,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3314,14 +3341,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3330,14 +3357,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3347,14 +3374,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>179</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3370,7 +3397,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3403,7 +3430,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3420,7 +3447,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3436,7 +3463,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3450,7 +3477,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>17</v>
@@ -3462,14 +3489,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3479,14 +3506,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3495,14 +3522,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3512,11 +3539,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>17</v>
@@ -3535,7 +3562,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3552,7 +3579,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3568,21 +3595,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>17</v>
@@ -3594,14 +3621,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3611,14 +3638,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>140</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3627,14 +3654,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3644,11 +3671,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>17</v>
@@ -3660,28 +3687,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>17</v>
@@ -3693,7 +3720,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3710,14 +3737,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3726,14 +3753,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3743,11 +3770,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3759,14 +3786,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3776,11 +3803,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>17</v>
@@ -3792,14 +3819,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3809,14 +3836,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3825,14 +3852,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3842,11 +3869,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>17</v>
@@ -3858,31 +3885,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3891,14 +3918,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3908,11 +3935,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>17</v>
@@ -3924,14 +3951,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3941,11 +3968,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>17</v>
@@ -3957,31 +3984,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3990,14 +4017,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4007,11 +4034,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>17</v>
@@ -4023,14 +4050,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4063,7 +4090,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>84</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4073,11 +4100,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>17</v>
@@ -4089,14 +4116,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4106,11 +4133,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>17</v>
@@ -4122,14 +4149,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4139,11 +4166,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>17</v>
@@ -4155,14 +4182,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4172,14 +4199,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4188,14 +4215,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4205,14 +4232,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4228,7 +4255,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4238,11 +4265,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>17</v>
@@ -4254,14 +4281,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4271,14 +4298,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4287,14 +4314,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4304,14 +4331,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4320,14 +4347,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4337,14 +4364,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4353,14 +4380,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4370,14 +4397,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4386,14 +4413,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4403,14 +4430,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4419,14 +4446,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4436,11 +4463,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>17</v>
@@ -4452,14 +4479,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4469,14 +4496,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4485,14 +4512,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4502,14 +4529,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4518,14 +4545,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4535,14 +4562,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4551,14 +4578,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4568,14 +4595,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4584,14 +4611,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4601,11 +4628,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>88</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4617,14 +4644,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4634,14 +4661,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>92</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4650,14 +4677,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4667,11 +4694,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>35</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>17</v>
@@ -4683,14 +4710,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4700,14 +4727,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4716,14 +4743,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4733,11 +4760,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4749,14 +4776,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4766,14 +4793,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4782,14 +4809,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4799,14 +4826,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4815,14 +4842,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4832,11 +4859,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>17</v>
@@ -4848,14 +4875,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4865,11 +4892,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>17</v>
@@ -4881,14 +4908,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4898,14 +4925,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>295</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4914,14 +4941,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4931,11 +4958,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>17</v>
@@ -4947,7 +4974,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4964,14 +4991,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4980,14 +5007,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4997,14 +5024,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5013,14 +5040,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5030,11 +5057,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>17</v>
@@ -5046,31 +5073,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>46</v>
+        <v>281</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>47</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>17</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5079,31 +5106,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>310</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5112,31 +5139,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>26</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5145,31 +5172,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5178,31 +5205,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>140</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5211,14 +5238,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5228,14 +5255,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>46</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>320</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5244,14 +5271,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5261,14 +5288,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>102</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>73</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5277,14 +5304,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>73</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5294,14 +5321,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>65</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>140</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5310,7 +5337,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5327,11 +5354,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>114</v>
+        <v>263</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>17</v>
@@ -5343,14 +5370,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5360,14 +5387,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5376,14 +5403,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5393,14 +5420,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>292</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>140</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5409,14 +5436,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>332</v>
+        <v>67</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5426,49 +5453,214 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>273</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>7532.625</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>331</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>77</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>18</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>332</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>333</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>41</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>18</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>117</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>334</v>
       </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
+      <c t="s" r="Q123" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>335</v>
       </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>67</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>18</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
         <v>336</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>337</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>338</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>67</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>18</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>339</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>340</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>341</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>18</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>342</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7938.625</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>343</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>344</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>345</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6052,10 +6244,35 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -593,142 +593,136 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
+    <t>FROST GEL 100 GM</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>HEALSEC 40MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>HERBANA 30CAPS</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>244.0000</t>
+  </si>
+  <si>
+    <t>LASIX 20MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LEVOFLOXACIN 750 MG 5 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPRO IRON ADULT  14 SACHETS</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>MACRO PANTHENOL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>METHYL FOLATE 1000 MCG 90 TABS.(ILLEGAL IMPORT)</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 6 SUPP.</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>OMEPURE ORAL DPS 10 ML</t>
   </si>
   <si>
     <t>59.00</t>
-  </si>
-  <si>
-    <t>118.0000</t>
-  </si>
-  <si>
-    <t>FROST GEL 100 GM</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>HEALSEC 40MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
-    <t>HERBANA 30CAPS</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>244.0000</t>
-  </si>
-  <si>
-    <t>LASIX 20MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LEVOFLOXACIN 750 MG 5 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>480.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPRO IRON ADULT  14 SACHETS</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>MACRO PANTHENOL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>METHYL FOLATE 1000 MCG 90 TABS.(ILLEGAL IMPORT)</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 6 SUPP.</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>NESTOGEN 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>255.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>OMEPURE ORAL DPS 10 ML</t>
   </si>
   <si>
     <t>59.0000</t>
@@ -3579,7 +3573,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3595,7 +3589,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3628,7 +3622,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3661,21 +3655,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>17</v>
@@ -3687,31 +3681,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3737,14 +3731,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3753,14 +3747,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3770,11 +3764,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3786,14 +3780,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3803,14 +3797,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3826,7 +3820,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3843,7 +3837,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3869,11 +3863,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>17</v>
@@ -3885,7 +3879,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3902,11 +3896,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>17</v>
@@ -3918,14 +3912,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3935,11 +3929,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>17</v>
@@ -3951,31 +3945,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3984,31 +3978,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4017,14 +4011,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4034,11 +4028,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>17</v>
@@ -4057,7 +4051,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4067,11 +4061,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>17</v>
@@ -4083,14 +4077,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>67</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4100,11 +4094,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>17</v>
@@ -4123,7 +4117,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>67</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4133,11 +4127,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>17</v>
@@ -4149,14 +4143,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4199,11 +4193,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>17</v>
@@ -4215,14 +4209,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4232,11 +4226,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>17</v>
@@ -4248,14 +4242,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4265,14 +4259,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4288,7 +4282,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4298,14 +4292,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4314,14 +4308,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4331,11 +4325,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>111</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4347,14 +4341,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4364,14 +4358,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4380,14 +4374,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4397,14 +4391,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4413,14 +4407,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4430,14 +4424,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>27</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4446,14 +4440,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4463,11 +4457,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>17</v>
@@ -4479,14 +4473,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4496,14 +4490,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4512,14 +4506,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4529,14 +4523,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4545,14 +4539,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4562,7 +4556,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>31</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4585,7 +4579,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4595,14 +4589,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4618,7 +4612,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4628,14 +4622,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4644,14 +4638,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4661,14 +4655,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>107</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4694,14 +4688,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4710,14 +4704,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4727,11 +4721,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4743,7 +4737,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4760,11 +4754,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4776,14 +4770,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4793,7 +4787,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4816,7 +4810,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4826,14 +4820,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>95</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4842,14 +4836,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4859,11 +4853,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>17</v>
@@ -4875,14 +4869,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4892,14 +4886,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4908,14 +4902,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4925,14 +4919,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4941,14 +4935,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4958,11 +4952,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>17</v>
@@ -4974,14 +4968,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4991,11 +4985,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>17</v>
@@ -5007,14 +5001,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5024,11 +5018,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>17</v>
@@ -5040,14 +5034,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5057,14 +5051,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>17</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5073,14 +5067,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5090,14 +5084,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>304</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5106,14 +5100,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5123,14 +5117,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5139,14 +5133,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5156,7 +5150,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5189,14 +5183,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5212,21 +5206,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>278</v>
+        <v>46</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>17</v>
@@ -5238,14 +5232,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5255,14 +5249,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>46</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>47</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>17</v>
+        <v>317</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5271,14 +5265,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5288,14 +5282,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>319</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5304,14 +5298,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5321,11 +5315,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>17</v>
@@ -5337,14 +5331,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5354,14 +5348,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5370,7 +5364,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5387,14 +5381,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>146</v>
+        <v>327</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5403,7 +5397,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5420,14 +5414,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>329</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5436,14 +5430,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5453,14 +5447,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>77</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5476,7 +5470,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5486,14 +5480,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>332</v>
+        <v>117</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>65</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5509,7 +5503,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5519,11 +5513,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>117</v>
+        <v>334</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>17</v>
@@ -5535,7 +5529,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5552,14 +5546,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5575,7 +5569,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>67</v>
+        <v>339</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5585,82 +5579,49 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="A126" s="7">
-        <v>120</v>
-      </c>
-      <c r="B126" s="7"/>
-      <c t="s" r="C126" s="8">
-        <v>340</v>
-      </c>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c t="s" r="H126" s="9">
+      <c r="P126" s="13">
+        <v>7820.625</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
         <v>341</v>
       </c>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
-      <c t="s" r="L126" s="10">
-        <v>18</v>
-      </c>
-      <c r="M126" s="10"/>
-      <c t="s" r="N126" s="8">
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
         <v>342</v>
       </c>
-      <c r="O126" s="8"/>
-      <c t="s" r="P126" s="11">
-        <v>282</v>
-      </c>
-      <c t="s" r="Q126" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7938.625</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
         <v>343</v>
       </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>344</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>345</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6264,15 +6225,10 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:G126"/>
-    <mergeCell ref="H126:K126"/>
-    <mergeCell ref="L126:M126"/>
-    <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -593,6 +593,15 @@
     <t>20.00</t>
   </si>
   <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
     <t>FROST GEL 100 GM</t>
   </si>
   <si>
@@ -722,9 +731,6 @@
     <t>OMEPURE ORAL DPS 10 ML</t>
   </si>
   <si>
-    <t>59.00</t>
-  </si>
-  <si>
     <t>59.0000</t>
   </si>
   <si>
@@ -1034,7 +1040,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 11:28 PM</t>
+    <t>Wednesday, 28 May, 2025 11:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3573,7 +3579,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3589,7 +3595,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3622,7 +3628,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3655,21 +3661,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>17</v>
@@ -3681,31 +3687,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3731,14 +3737,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3747,14 +3753,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3764,11 +3770,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3780,14 +3786,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3797,14 +3803,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3820,7 +3826,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3837,7 +3843,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3863,11 +3869,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>47</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>17</v>
@@ -3879,7 +3885,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3896,11 +3902,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>17</v>
@@ -3912,14 +3918,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3929,11 +3935,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>17</v>
@@ -3945,31 +3951,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3978,31 +3984,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4011,14 +4017,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4028,11 +4034,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>17</v>
@@ -4051,7 +4057,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4061,11 +4067,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>17</v>
@@ -4077,14 +4083,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4094,11 +4100,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>17</v>
@@ -4117,7 +4123,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4127,11 +4133,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>17</v>
@@ -4143,14 +4149,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4193,11 +4199,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>17</v>
@@ -4209,14 +4215,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4226,11 +4232,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>17</v>
@@ -4242,14 +4248,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4259,14 +4265,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4282,7 +4288,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4292,14 +4298,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4308,14 +4314,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4325,11 +4331,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4341,14 +4347,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4358,14 +4364,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4374,14 +4380,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4391,14 +4397,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4407,14 +4413,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4424,14 +4430,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4440,14 +4446,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4457,11 +4463,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>17</v>
@@ -4473,14 +4479,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4490,14 +4496,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4506,14 +4512,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4523,14 +4529,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4539,14 +4545,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4556,7 +4562,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4579,7 +4585,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4589,14 +4595,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4612,7 +4618,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4622,14 +4628,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4638,14 +4644,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4655,14 +4661,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4688,14 +4694,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4704,14 +4710,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4721,11 +4727,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4737,7 +4743,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4754,11 +4760,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4770,14 +4776,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4787,7 +4793,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4810,7 +4816,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4820,14 +4826,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>95</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4836,14 +4842,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4853,11 +4859,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>17</v>
@@ -4869,14 +4875,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4886,14 +4892,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4902,14 +4908,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4919,14 +4925,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4935,14 +4941,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4952,11 +4958,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>231</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>17</v>
@@ -4968,14 +4974,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4985,11 +4991,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>17</v>
@@ -5001,14 +5007,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5018,11 +5024,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>218</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>17</v>
@@ -5034,14 +5040,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5051,14 +5057,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>302</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5067,14 +5073,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5084,14 +5090,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>17</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5100,14 +5106,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5117,14 +5123,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5133,14 +5139,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5150,7 +5156,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5183,14 +5189,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5206,21 +5212,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>46</v>
+        <v>278</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>47</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>17</v>
@@ -5232,14 +5238,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5249,14 +5255,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>46</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>317</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5265,14 +5271,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>319</v>
+        <v>67</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5282,14 +5288,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>17</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5298,14 +5304,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5315,11 +5321,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>17</v>
@@ -5331,14 +5337,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5348,14 +5354,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5364,7 +5370,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5381,14 +5387,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>65</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>327</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5397,7 +5403,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5414,14 +5420,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>77</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5430,14 +5436,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5447,14 +5453,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>146</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5470,7 +5476,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5480,14 +5486,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>117</v>
+        <v>332</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>332</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5503,7 +5509,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5513,11 +5519,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>334</v>
+        <v>117</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>17</v>
@@ -5529,7 +5535,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5546,14 +5552,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5569,7 +5575,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>339</v>
+        <v>67</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5579,49 +5585,82 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>7820.625</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>340</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
         <v>341</v>
       </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>18</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
         <v>342</v>
       </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7938.625</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
         <v>343</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>344</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>345</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6225,10 +6264,15 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -1040,7 +1040,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 11:29 PM</t>
+    <t>Wednesday, 28 May, 2025 11:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -674,6 +674,15 @@
     <t>MACRO PANTHENOL CREAM 50 GM</t>
   </si>
   <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>METHYL FOLATE 1000 MCG 90 TABS.(ILLEGAL IMPORT)</t>
   </si>
   <si>
@@ -1040,7 +1049,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 11:30 PM</t>
+    <t>Wednesday, 28 May, 2025 11:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3562,7 +3571,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3935,11 +3944,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>17</v>
@@ -3951,14 +3960,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3968,11 +3977,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>17</v>
@@ -3984,31 +3993,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4017,31 +4026,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4050,14 +4059,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4067,11 +4076,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>17</v>
@@ -4090,7 +4099,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4100,11 +4109,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>17</v>
@@ -4116,14 +4125,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4133,11 +4142,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>17</v>
@@ -4156,7 +4165,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4166,11 +4175,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>17</v>
@@ -4182,14 +4191,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4199,11 +4208,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>17</v>
@@ -4215,7 +4224,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4232,11 +4241,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>17</v>
@@ -4248,14 +4257,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4265,11 +4274,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>17</v>
@@ -4281,14 +4290,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4298,14 +4307,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4314,14 +4323,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4331,14 +4340,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4347,14 +4356,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4364,11 +4373,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4387,7 +4396,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4404,7 +4413,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4420,7 +4429,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4437,7 +4446,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4453,7 +4462,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4463,14 +4472,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4479,14 +4488,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4496,11 +4505,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>17</v>
@@ -4519,7 +4528,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4536,7 +4545,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4552,7 +4561,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4569,7 +4578,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4585,7 +4594,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4595,11 +4604,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>17</v>
@@ -4611,14 +4620,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4628,14 +4637,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4644,14 +4653,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4661,14 +4670,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>88</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4684,7 +4693,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4694,14 +4703,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4710,14 +4719,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4727,14 +4736,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>35</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4816,7 +4825,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4826,11 +4835,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>95</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4842,14 +4851,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4859,14 +4868,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>95</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4882,7 +4891,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4915,7 +4924,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4932,7 +4941,7 @@
         <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4948,7 +4957,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4965,7 +4974,7 @@
         <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4981,7 +4990,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4991,11 +5000,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>233</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>17</v>
@@ -5007,14 +5016,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5024,11 +5033,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>17</v>
@@ -5040,14 +5049,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5057,11 +5066,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>17</v>
@@ -5080,7 +5089,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5090,14 +5099,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>304</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5113,7 +5122,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5123,14 +5132,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q111" s="12">
         <v>307</v>
-      </c>
-      <c t="s" r="Q111" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5146,7 +5155,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5163,7 +5172,7 @@
         <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5179,7 +5188,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5189,11 +5198,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>237</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5205,7 +5214,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5222,14 +5231,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5238,28 +5247,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>46</v>
+        <v>281</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>47</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>17</v>
@@ -5271,14 +5280,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5288,14 +5297,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>46</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>319</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5304,14 +5313,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>67</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5321,14 +5330,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q117" s="12">
         <v>322</v>
-      </c>
-      <c t="s" r="Q117" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5344,7 +5353,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5354,11 +5363,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>263</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>17</v>
@@ -5370,14 +5379,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5387,14 +5396,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>326</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5424,10 +5433,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>65</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>329</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5453,14 +5462,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>77</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5469,14 +5478,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5486,14 +5495,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>146</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5502,14 +5511,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5519,14 +5528,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>117</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>334</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5535,14 +5544,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5552,7 +5561,7 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>336</v>
+        <v>117</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
@@ -5589,10 +5598,10 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5601,14 +5610,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>341</v>
+        <v>67</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5622,45 +5631,78 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7938.625</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>343</v>
       </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
         <v>344</v>
       </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>18</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
         <v>345</v>
       </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>8043.625</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>346</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>347</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>348</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6269,10 +6311,15 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -596,6 +596,9 @@
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>59.00</t>
   </si>
   <si>
@@ -711,9 +714,6 @@
   </si>
   <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>4:0</t>
   </si>
   <si>
     <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
@@ -3571,7 +3571,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3581,11 +3581,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>146</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3614,11 +3614,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>17</v>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3647,11 +3647,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>17</v>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3680,11 +3680,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>17</v>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>17</v>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3746,11 +3746,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>146</v>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3845,11 +3845,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>146</v>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3878,11 +3878,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>17</v>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3944,11 +3944,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>17</v>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>17</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4109,11 +4109,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>17</v>
@@ -4125,14 +4125,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -5066,11 +5066,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>17</v>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -713,6 +713,18 @@
     <t>255.0000</t>
   </si>
   <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
@@ -1049,7 +1061,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 11:37 PM</t>
+    <t>Wednesday, 28 May, 2025 11:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4132,7 +4144,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>195</v>
+        <v>67</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4142,11 +4154,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>17</v>
@@ -4198,7 +4210,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4208,11 +4220,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>17</v>
@@ -4224,7 +4236,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4241,11 +4253,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>17</v>
@@ -4257,14 +4269,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>67</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4274,11 +4286,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>68</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>17</v>
@@ -4290,14 +4302,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4307,11 +4319,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>43</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>17</v>
@@ -4323,14 +4335,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>239</v>
+        <v>67</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4340,14 +4352,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4356,14 +4368,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4373,14 +4385,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4389,14 +4401,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4406,14 +4418,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4429,7 +4441,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4439,14 +4451,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4455,14 +4467,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4472,11 +4484,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4488,7 +4500,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4505,11 +4517,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>28</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>17</v>
@@ -4528,7 +4540,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4545,7 +4557,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4561,7 +4573,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4571,14 +4583,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>27</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4587,14 +4599,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4604,11 +4616,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>17</v>
@@ -4620,7 +4632,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4637,14 +4649,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4653,14 +4665,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4670,14 +4682,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4693,7 +4705,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4703,14 +4715,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>31</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>107</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4719,14 +4731,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4736,14 +4748,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4752,7 +4764,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4769,14 +4781,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4785,14 +4797,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4802,14 +4814,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>35</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4818,7 +4830,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4835,11 +4847,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4851,14 +4863,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4868,11 +4880,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>95</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4884,7 +4896,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4901,14 +4913,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4917,14 +4929,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4934,14 +4946,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>95</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4950,14 +4962,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4967,14 +4979,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4983,14 +4995,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5000,11 +5012,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>17</v>
@@ -5016,14 +5028,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5033,14 +5045,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5056,7 +5068,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5066,11 +5078,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>17</v>
@@ -5082,14 +5094,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5099,11 +5111,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>17</v>
@@ -5122,7 +5134,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5132,14 +5144,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>307</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5148,7 +5160,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5165,11 +5177,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>17</v>
@@ -5181,14 +5193,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5198,14 +5210,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5214,14 +5226,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5231,14 +5243,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5247,14 +5259,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5264,14 +5276,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5287,24 +5299,24 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>47</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5313,31 +5325,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
         <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>322</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5346,14 +5358,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>324</v>
+        <v>107</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5363,11 +5375,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>325</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>17</v>
@@ -5379,14 +5391,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5396,14 +5408,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>17</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5419,7 +5431,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>67</v>
+        <v>328</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5429,14 +5441,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
         <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5452,7 +5464,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5462,14 +5474,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>65</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>332</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5478,7 +5490,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5495,14 +5507,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>105</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>77</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5518,7 +5530,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5535,7 +5547,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>146</v>
+        <v>336</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5544,14 +5556,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5561,14 +5573,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>117</v>
+        <v>324</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>337</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5584,7 +5596,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5598,10 +5610,10 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5610,14 +5622,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5627,14 +5639,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>342</v>
+        <v>117</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5643,14 +5655,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>344</v>
+        <v>67</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5660,49 +5672,115 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>285</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>8043.625</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>345</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>67</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>18</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
         <v>346</v>
       </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>347</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
         <v>348</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>18</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>349</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>8189.625</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>350</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>351</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>352</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6316,10 +6394,20 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -1061,7 +1061,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 11:40 PM</t>
+    <t>Wednesday, 28 May, 2025 11:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -755,6 +755,9 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>ONDALENZ 4 MG 5 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
     <t>OSTEOCARE LIQUID 120 ML</t>
   </si>
   <si>
@@ -1061,7 +1064,7 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>Wednesday, 28 May, 2025 11:42 PM</t>
+    <t>Wednesday, 28 May, 2025 11:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4342,7 +4345,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4352,14 +4355,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4375,7 +4378,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4385,11 +4388,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>17</v>
@@ -4408,7 +4411,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4418,14 +4421,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4434,14 +4437,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4451,14 +4454,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4474,7 +4477,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4484,11 +4487,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4500,14 +4503,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4517,14 +4520,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4533,14 +4536,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4550,14 +4553,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4566,14 +4569,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4583,14 +4586,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4606,7 +4609,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4616,11 +4619,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>17</v>
@@ -4632,14 +4635,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4649,14 +4652,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4665,14 +4668,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4682,14 +4685,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4698,14 +4701,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4715,11 +4718,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>17</v>
@@ -4731,14 +4734,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4748,14 +4751,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4764,14 +4767,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4781,14 +4784,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>88</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4797,14 +4800,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4814,14 +4817,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4830,14 +4833,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4847,14 +4850,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>35</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4863,7 +4866,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4880,11 +4883,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4896,7 +4899,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4913,11 +4916,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4929,14 +4932,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4946,11 +4949,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>95</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4962,14 +4965,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4979,14 +4982,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>95</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4995,14 +4998,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5012,11 +5015,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>17</v>
@@ -5028,14 +5031,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5045,14 +5048,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5061,14 +5064,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5078,14 +5081,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5094,14 +5097,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5111,11 +5114,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>17</v>
@@ -5134,7 +5137,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5144,11 +5147,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>17</v>
@@ -5167,7 +5170,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5177,11 +5180,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>17</v>
@@ -5193,14 +5196,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5210,14 +5213,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>311</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5226,14 +5229,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5243,14 +5246,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>17</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5259,14 +5262,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5276,14 +5279,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5292,14 +5295,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5309,11 +5312,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>244</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5325,7 +5328,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5342,14 +5345,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5358,28 +5361,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>46</v>
+        <v>286</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>47</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>17</v>
@@ -5398,7 +5401,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5408,14 +5411,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>324</v>
+        <v>46</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>325</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>326</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5424,14 +5427,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>67</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5441,14 +5444,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>325</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>17</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5457,14 +5460,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>41</v>
+        <v>329</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5474,11 +5477,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>17</v>
@@ -5497,7 +5500,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5507,14 +5510,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5523,7 +5526,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5540,14 +5543,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>65</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>336</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5556,7 +5559,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5573,14 +5576,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>77</v>
+        <v>337</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5596,7 +5599,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5606,14 +5609,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>146</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5622,14 +5625,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5639,14 +5642,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>117</v>
+        <v>340</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>341</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5655,14 +5658,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5672,11 +5675,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>343</v>
+        <v>117</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>17</v>
@@ -5688,7 +5691,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5705,14 +5708,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5721,14 +5724,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>348</v>
+        <v>67</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5738,49 +5741,82 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>8189.625</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>348</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>349</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>18</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
         <v>350</v>
       </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>8221.625</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
         <v>351</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
         <v>352</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>353</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6404,10 +6440,15 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 12:04 AM</t>
+    <t>Thursday, 29 May, 2025 12:05 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 12:05 AM</t>
+    <t>Thursday, 29 May, 2025 12:06 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 12:06 AM</t>
+    <t>Thursday, 29 May, 2025 12:08 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 12:08 AM</t>
+    <t>Thursday, 29 May, 2025 12:13 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-28_00-00.xlsx
+++ b/DaySale_2025-05-28_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 12:13 AM</t>
+    <t>Thursday, 29 May, 2025 12:14 AM</t>
   </si>
   <si>
     <t>1/1</t>
